--- a/storage/app/contractAndFact/17/2022/Контрактация и факт.xlsx
+++ b/storage/app/contractAndFact/17/2022/Контрактация и факт.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Downloads/ГЗ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/contractAndFact/17/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84191CFC-5647-294F-B661-34E6DA60E022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5F0EE1-9DF5-2B42-AA6B-D0A9C3769FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="15900" windowHeight="13660" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35300" windowHeight="13660" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" refMode="R1C1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -115,12 +115,14 @@
       <sz val="18"/>
       <color rgb="FF003F2F"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF003F2F"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -289,6 +291,27 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -309,27 +332,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -734,113 +736,113 @@
         <v>4</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="17"/>
     </row>
     <row r="6" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="16" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16" t="s">
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16" t="s">
+      <c r="I7" s="23"/>
+      <c r="J7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16" t="s">
+      <c r="K7" s="23"/>
+      <c r="L7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16" t="s">
+      <c r="M7" s="23"/>
+      <c r="N7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16" t="s">
+      <c r="O7" s="23"/>
+      <c r="P7" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16" t="s">
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16" t="s">
+      <c r="S7" s="23"/>
+      <c r="T7" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16" t="s">
+      <c r="U7" s="23"/>
+      <c r="V7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16" t="s">
+      <c r="W7" s="23"/>
+      <c r="X7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16" t="s">
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16" t="s">
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="16" t="s">
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="AE7" s="16"/>
+      <c r="AE7" s="23"/>
       <c r="AF7" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="101" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="16"/>
+      <c r="F8" s="23"/>
       <c r="G8" s="4" t="s">
         <v>22</v>
       </c>
@@ -921,16 +923,16 @@
       </c>
     </row>
     <row r="9" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13">
         <v>703021.84</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="5">
         <v>432392.09</v>
       </c>
@@ -1011,16 +1013,16 @@
       </c>
     </row>
     <row r="10" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="21">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="16">
         <v>335.17</v>
       </c>
-      <c r="F10" s="21"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="6">
         <v>0</v>
       </c>
@@ -1101,16 +1103,16 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13">
         <v>4697.4399999999996</v>
       </c>
-      <c r="F11" s="20"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="5">
         <v>1939.72</v>
       </c>
@@ -1191,16 +1193,16 @@
       </c>
     </row>
     <row r="12" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="21">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="16">
         <v>628.28</v>
       </c>
-      <c r="F12" s="21"/>
+      <c r="F12" s="16"/>
       <c r="G12" s="6">
         <v>0</v>
       </c>
@@ -1281,16 +1283,16 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="21">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="16">
         <v>409.92</v>
       </c>
-      <c r="F13" s="21"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="7">
         <v>409.92</v>
       </c>
@@ -1371,16 +1373,16 @@
       </c>
     </row>
     <row r="14" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13">
         <v>303880.71000000002</v>
       </c>
-      <c r="F14" s="20"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="5">
         <v>233326.49</v>
       </c>
@@ -1461,16 +1463,16 @@
       </c>
     </row>
     <row r="15" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13">
         <v>15181.63</v>
       </c>
-      <c r="F15" s="20"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="5">
         <v>11973.09</v>
       </c>
@@ -1551,16 +1553,16 @@
       </c>
     </row>
     <row r="16" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15">
         <v>1028154.99</v>
       </c>
-      <c r="F16" s="23"/>
+      <c r="F16" s="15"/>
       <c r="G16" s="8">
         <v>680041.3</v>
       </c>
@@ -1642,22 +1644,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:F11"/>
     <mergeCell ref="C5:AF5"/>
     <mergeCell ref="A7:D8"/>
     <mergeCell ref="E7:G7"/>
@@ -1674,6 +1660,22 @@
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>

--- a/storage/app/contractAndFact/17/2022/Контрактация и факт.xlsx
+++ b/storage/app/contractAndFact/17/2022/Контрактация и факт.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/contractAndFact/17/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5F0EE1-9DF5-2B42-AA6B-D0A9C3769FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CC0F3D-9271-7747-8843-0C9F6A6B9A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35300" windowHeight="13660" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="26">
   <si>
     <t>Реестр контрактов</t>
   </si>
@@ -105,7 +105,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -121,6 +121,11 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF003F2F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -262,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -291,6 +296,27 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -303,35 +329,26 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -678,7 +695,7 @@
   <dimension ref="A1:AF16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="11.5" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -689,7 +706,7 @@
     <col min="4" max="4" width="35" style="1" customWidth="1"/>
     <col min="5" max="5" width="0.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" style="1" customWidth="1"/>
     <col min="8" max="17" width="12.75" style="1" customWidth="1"/>
     <col min="18" max="19" width="13.25" style="1" customWidth="1"/>
     <col min="20" max="21" width="12.75" style="1" customWidth="1"/>
@@ -736,113 +753,113 @@
         <v>4</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="17"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
     </row>
     <row r="6" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="23" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23" t="s">
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23" t="s">
+      <c r="I7" s="16"/>
+      <c r="J7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23" t="s">
+      <c r="K7" s="16"/>
+      <c r="L7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23" t="s">
+      <c r="M7" s="16"/>
+      <c r="N7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23" t="s">
+      <c r="O7" s="16"/>
+      <c r="P7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23" t="s">
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23" t="s">
+      <c r="S7" s="16"/>
+      <c r="T7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23" t="s">
+      <c r="U7" s="16"/>
+      <c r="V7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23" t="s">
+      <c r="W7" s="16"/>
+      <c r="X7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23" t="s">
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23" t="s">
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="AC7" s="23"/>
-      <c r="AD7" s="23" t="s">
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="AE7" s="23"/>
+      <c r="AE7" s="16"/>
       <c r="AF7" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="101" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="23"/>
+      <c r="F8" s="16"/>
       <c r="G8" s="4" t="s">
         <v>22</v>
       </c>
@@ -923,18 +940,18 @@
       </c>
     </row>
     <row r="9" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20">
         <v>703021.84</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="5">
-        <v>432392.09</v>
+      <c r="F9" s="20"/>
+      <c r="G9" s="25" t="s">
+        <v>25</v>
       </c>
       <c r="H9" s="5">
         <v>11606.47</v>
@@ -1013,18 +1030,18 @@
       </c>
     </row>
     <row r="10" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="16">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="21">
         <v>335.17</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="6">
-        <v>0</v>
+      <c r="F10" s="21"/>
+      <c r="G10" s="26" t="s">
+        <v>25</v>
       </c>
       <c r="H10" s="6">
         <v>0</v>
@@ -1103,18 +1120,18 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20">
         <v>4697.4399999999996</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="5">
-        <v>1939.72</v>
+      <c r="F11" s="20"/>
+      <c r="G11" s="25" t="s">
+        <v>25</v>
       </c>
       <c r="H11" s="6">
         <v>0</v>
@@ -1193,18 +1210,18 @@
       </c>
     </row>
     <row r="12" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="16">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="21">
         <v>628.28</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="6">
-        <v>0</v>
+      <c r="F12" s="21"/>
+      <c r="G12" s="26" t="s">
+        <v>25</v>
       </c>
       <c r="H12" s="6">
         <v>0</v>
@@ -1283,18 +1300,18 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="16">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="21">
         <v>409.92</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="7">
-        <v>409.92</v>
+      <c r="F13" s="21"/>
+      <c r="G13" s="27" t="s">
+        <v>25</v>
       </c>
       <c r="H13" s="6">
         <v>0</v>
@@ -1373,18 +1390,18 @@
       </c>
     </row>
     <row r="14" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20">
         <v>303880.71000000002</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="5">
-        <v>233326.49</v>
+      <c r="F14" s="20"/>
+      <c r="G14" s="25" t="s">
+        <v>25</v>
       </c>
       <c r="H14" s="5">
         <v>47128.480000000003</v>
@@ -1463,18 +1480,18 @@
       </c>
     </row>
     <row r="15" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20">
         <v>15181.63</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="5">
-        <v>11973.09</v>
+      <c r="F15" s="20"/>
+      <c r="G15" s="25" t="s">
+        <v>25</v>
       </c>
       <c r="H15" s="5">
         <v>1418.23</v>
@@ -1553,16 +1570,16 @@
       </c>
     </row>
     <row r="16" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15">
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23">
         <v>1028154.99</v>
       </c>
-      <c r="F16" s="15"/>
+      <c r="F16" s="23"/>
       <c r="G16" s="8">
         <v>680041.3</v>
       </c>
@@ -1644,6 +1661,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="C5:AF5"/>
     <mergeCell ref="A7:D8"/>
     <mergeCell ref="E7:G7"/>
@@ -1660,22 +1693,6 @@
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>

--- a/storage/app/contractAndFact/17/2022/Контрактация и факт.xlsx
+++ b/storage/app/contractAndFact/17/2022/Контрактация и факт.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/contractAndFact/17/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CC0F3D-9271-7747-8843-0C9F6A6B9A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1E9A58-CCA7-3F4E-B201-0DAAB169C6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35300" windowHeight="13660" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
   <si>
     <t>Реестр контрактов</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>АО "ГЗ "Пульсар"</t>
+  </si>
+  <si>
+    <t>АО "ГЗ "</t>
   </si>
 </sst>
 </file>
@@ -267,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -296,6 +299,33 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -316,39 +346,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -695,7 +692,7 @@
   <dimension ref="A1:AF16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="11.5" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -753,113 +750,113 @@
         <v>4</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
     </row>
     <row r="6" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="16" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16" t="s">
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16" t="s">
+      <c r="I7" s="25"/>
+      <c r="J7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16" t="s">
+      <c r="K7" s="25"/>
+      <c r="L7" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16" t="s">
+      <c r="M7" s="25"/>
+      <c r="N7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16" t="s">
+      <c r="O7" s="25"/>
+      <c r="P7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16" t="s">
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16" t="s">
+      <c r="S7" s="25"/>
+      <c r="T7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16" t="s">
+      <c r="U7" s="25"/>
+      <c r="V7" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16" t="s">
+      <c r="W7" s="25"/>
+      <c r="X7" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16" t="s">
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16" t="s">
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="16" t="s">
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="AE7" s="16"/>
+      <c r="AE7" s="25"/>
       <c r="AF7" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="101" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="16"/>
+      <c r="F8" s="25"/>
       <c r="G8" s="4" t="s">
         <v>22</v>
       </c>
@@ -940,18 +937,18 @@
       </c>
     </row>
     <row r="9" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14">
         <v>703021.84</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="25" t="s">
-        <v>25</v>
+      <c r="F9" s="14"/>
+      <c r="G9" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="H9" s="5">
         <v>11606.47</v>
@@ -1030,18 +1027,18 @@
       </c>
     </row>
     <row r="10" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="21">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="17">
         <v>335.17</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="26" t="s">
-        <v>25</v>
+      <c r="F10" s="17"/>
+      <c r="G10" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="H10" s="6">
         <v>0</v>
@@ -1120,18 +1117,18 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14">
         <v>4697.4399999999996</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="25" t="s">
-        <v>25</v>
+      <c r="F11" s="14"/>
+      <c r="G11" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="H11" s="6">
         <v>0</v>
@@ -1210,18 +1207,18 @@
       </c>
     </row>
     <row r="12" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="21">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="17">
         <v>628.28</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="26" t="s">
-        <v>25</v>
+      <c r="F12" s="17"/>
+      <c r="G12" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="H12" s="6">
         <v>0</v>
@@ -1300,18 +1297,18 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="21">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="17">
         <v>409.92</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="27" t="s">
-        <v>25</v>
+      <c r="F13" s="17"/>
+      <c r="G13" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="H13" s="6">
         <v>0</v>
@@ -1390,18 +1387,18 @@
       </c>
     </row>
     <row r="14" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14">
         <v>303880.71000000002</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="25" t="s">
-        <v>25</v>
+      <c r="F14" s="14"/>
+      <c r="G14" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="H14" s="5">
         <v>47128.480000000003</v>
@@ -1480,18 +1477,18 @@
       </c>
     </row>
     <row r="15" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="14">
         <v>15181.63</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="25" t="s">
-        <v>25</v>
+      <c r="F15" s="14"/>
+      <c r="G15" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="H15" s="5">
         <v>1418.23</v>
@@ -1570,16 +1567,16 @@
       </c>
     </row>
     <row r="16" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16">
         <v>1028154.99</v>
       </c>
-      <c r="F16" s="23"/>
+      <c r="F16" s="16"/>
       <c r="G16" s="8">
         <v>680041.3</v>
       </c>
@@ -1661,22 +1658,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:F11"/>
     <mergeCell ref="C5:AF5"/>
     <mergeCell ref="A7:D8"/>
     <mergeCell ref="E7:G7"/>
@@ -1693,6 +1674,22 @@
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>

--- a/storage/app/contractAndFact/17/2022/Контрактация и факт.xlsx
+++ b/storage/app/contractAndFact/17/2022/Контрактация и факт.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/contractAndFact/17/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1E9A58-CCA7-3F4E-B201-0DAAB169C6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11819FE0-C09A-CA40-930A-E27A82ADACC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35300" windowHeight="13660" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
   <si>
     <t>Реестр контрактов</t>
   </si>
@@ -98,10 +98,46 @@
     <t>Итого</t>
   </si>
   <si>
-    <t>АО "ГЗ "Пульсар"</t>
-  </si>
-  <si>
-    <t>АО "ГЗ "</t>
+    <t>АО "ГЗ "Пульсар" 1</t>
+  </si>
+  <si>
+    <t>АО "ГЗ "Пульсар" 2</t>
+  </si>
+  <si>
+    <t>АО "ГЗ "Пульсар" 3</t>
+  </si>
+  <si>
+    <t>АО "ГЗ "Пульсар" 4</t>
+  </si>
+  <si>
+    <t>АО "ГЗ "Пульсар" 5</t>
+  </si>
+  <si>
+    <t>АО "ГЗ "Пульсар" 6</t>
+  </si>
+  <si>
+    <t>АО "ГЗ "Пульсар" 7</t>
+  </si>
+  <si>
+    <t>АО "ГЗ 1"</t>
+  </si>
+  <si>
+    <t>АО "ГЗ 2"</t>
+  </si>
+  <si>
+    <t>АО "ГЗ 3"</t>
+  </si>
+  <si>
+    <t>АО "ГЗ 4"</t>
+  </si>
+  <si>
+    <t>АО "ГЗ 5"</t>
+  </si>
+  <si>
+    <t>АО "ГЗ 6"</t>
+  </si>
+  <si>
+    <t>АО "ГЗ 7"</t>
   </si>
 </sst>
 </file>
@@ -302,16 +338,43 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -319,33 +382,6 @@
     </xf>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -692,7 +728,7 @@
   <dimension ref="A1:AF16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="AB18" sqref="AB18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="11.5" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -750,113 +786,113 @@
         <v>4</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
     </row>
     <row r="6" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="25" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25" t="s">
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25" t="s">
+      <c r="I7" s="17"/>
+      <c r="J7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25" t="s">
+      <c r="K7" s="17"/>
+      <c r="L7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25" t="s">
+      <c r="M7" s="17"/>
+      <c r="N7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25" t="s">
+      <c r="O7" s="17"/>
+      <c r="P7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25" t="s">
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25" t="s">
+      <c r="S7" s="17"/>
+      <c r="T7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25" t="s">
+      <c r="U7" s="17"/>
+      <c r="V7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="W7" s="25"/>
-      <c r="X7" s="25" t="s">
+      <c r="W7" s="17"/>
+      <c r="X7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25" t="s">
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25" t="s">
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="AC7" s="25"/>
-      <c r="AD7" s="25" t="s">
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="AE7" s="25"/>
+      <c r="AE7" s="17"/>
       <c r="AF7" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="101" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="25"/>
+      <c r="F8" s="17"/>
       <c r="G8" s="4" t="s">
         <v>22</v>
       </c>
@@ -940,15 +976,15 @@
       <c r="A9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21">
         <v>703021.84</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H9" s="5">
         <v>11606.47</v>
@@ -1027,18 +1063,18 @@
       </c>
     </row>
     <row r="10" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="17">
+      <c r="A10" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="23">
         <v>335.17</v>
       </c>
-      <c r="F10" s="17"/>
+      <c r="F10" s="23"/>
       <c r="G10" s="10" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H10" s="6">
         <v>0</v>
@@ -1117,18 +1153,18 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14">
+      <c r="A11" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21">
         <v>4697.4399999999996</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="10" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H11" s="6">
         <v>0</v>
@@ -1207,18 +1243,18 @@
       </c>
     </row>
     <row r="12" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="17">
+      <c r="A12" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="23">
         <v>628.28</v>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="23"/>
       <c r="G12" s="10" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H12" s="6">
         <v>0</v>
@@ -1297,18 +1333,18 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="17">
+      <c r="A13" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="23">
         <v>409.92</v>
       </c>
-      <c r="F13" s="17"/>
+      <c r="F13" s="23"/>
       <c r="G13" s="10" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="H13" s="6">
         <v>0</v>
@@ -1387,18 +1423,18 @@
       </c>
     </row>
     <row r="14" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14">
+      <c r="A14" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21">
         <v>303880.71000000002</v>
       </c>
-      <c r="F14" s="14"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="10" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H14" s="5">
         <v>47128.480000000003</v>
@@ -1477,18 +1513,18 @@
       </c>
     </row>
     <row r="15" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14">
+      <c r="A15" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21">
         <v>15181.63</v>
       </c>
-      <c r="F15" s="14"/>
+      <c r="F15" s="21"/>
       <c r="G15" s="10" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H15" s="5">
         <v>1418.23</v>
@@ -1567,16 +1603,16 @@
       </c>
     </row>
     <row r="16" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16">
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25">
         <v>1028154.99</v>
       </c>
-      <c r="F16" s="16"/>
+      <c r="F16" s="25"/>
       <c r="G16" s="8">
         <v>680041.3</v>
       </c>
@@ -1658,6 +1694,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="C5:AF5"/>
     <mergeCell ref="A7:D8"/>
     <mergeCell ref="E7:G7"/>
@@ -1674,22 +1726,6 @@
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>

--- a/storage/app/contractAndFact/17/2022/Контрактация и факт.xlsx
+++ b/storage/app/contractAndFact/17/2022/Контрактация и факт.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/contractAndFact/17/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11819FE0-C09A-CA40-930A-E27A82ADACC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDDDD1A-CEAD-034E-8DFB-DCC39D68C066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35300" windowHeight="13660" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
   <si>
     <t>Реестр контрактов</t>
   </si>
@@ -98,27 +98,6 @@
     <t>Итого</t>
   </si>
   <si>
-    <t>АО "ГЗ "Пульсар" 1</t>
-  </si>
-  <si>
-    <t>АО "ГЗ "Пульсар" 2</t>
-  </si>
-  <si>
-    <t>АО "ГЗ "Пульсар" 3</t>
-  </si>
-  <si>
-    <t>АО "ГЗ "Пульсар" 4</t>
-  </si>
-  <si>
-    <t>АО "ГЗ "Пульсар" 5</t>
-  </si>
-  <si>
-    <t>АО "ГЗ "Пульсар" 6</t>
-  </si>
-  <si>
-    <t>АО "ГЗ "Пульсар" 7</t>
-  </si>
-  <si>
     <t>АО "ГЗ 1"</t>
   </si>
   <si>
@@ -138,6 +117,9 @@
   </si>
   <si>
     <t>АО "ГЗ 7"</t>
+  </si>
+  <si>
+    <t>АО "ГЗ "Пульсар"</t>
   </si>
 </sst>
 </file>
@@ -183,7 +165,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -302,11 +284,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFACC8BD"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFA0A0A0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA0A0A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFA0A0A0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA0A0A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFACC8BD"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA0A0A0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA0A0A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -338,6 +357,27 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -359,29 +399,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -728,7 +753,7 @@
   <dimension ref="A1:AF16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB18" sqref="AB18"/>
+      <selection activeCell="A15" sqref="A15:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="11.5" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -786,113 +811,113 @@
         <v>4</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="11"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
     </row>
     <row r="6" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="17" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17" t="s">
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17" t="s">
+      <c r="I7" s="24"/>
+      <c r="J7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17" t="s">
+      <c r="K7" s="24"/>
+      <c r="L7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17" t="s">
+      <c r="M7" s="24"/>
+      <c r="N7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17" t="s">
+      <c r="O7" s="24"/>
+      <c r="P7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17" t="s">
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17" t="s">
+      <c r="S7" s="24"/>
+      <c r="T7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17" t="s">
+      <c r="U7" s="24"/>
+      <c r="V7" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17" t="s">
+      <c r="W7" s="24"/>
+      <c r="X7" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17" t="s">
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17" t="s">
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="17" t="s">
+      <c r="AC7" s="24"/>
+      <c r="AD7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="AE7" s="17"/>
+      <c r="AE7" s="24"/>
       <c r="AF7" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="101" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="17"/>
+      <c r="F8" s="24"/>
       <c r="G8" s="4" t="s">
         <v>22</v>
       </c>
@@ -973,18 +998,18 @@
       </c>
     </row>
     <row r="9" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13">
+        <v>703021.84</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21">
-        <v>703021.84</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="H9" s="5">
         <v>11606.47</v>
@@ -1063,18 +1088,18 @@
       </c>
     </row>
     <row r="10" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="16">
+        <v>335.17</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="23">
-        <v>335.17</v>
-      </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="H10" s="6">
         <v>0</v>
@@ -1153,18 +1178,18 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="13">
+        <v>4697.4399999999996</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21">
-        <v>4697.4399999999996</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="10" t="s">
-        <v>34</v>
       </c>
       <c r="H11" s="6">
         <v>0</v>
@@ -1243,18 +1268,18 @@
       </c>
     </row>
     <row r="12" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="16">
+        <v>628.28</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="10" t="s">
         <v>28</v>
-      </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="23">
-        <v>628.28</v>
-      </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="H12" s="6">
         <v>0</v>
@@ -1333,18 +1358,18 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="16">
+        <v>409.92</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="23">
-        <v>409.92</v>
-      </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="10" t="s">
-        <v>36</v>
       </c>
       <c r="H13" s="6">
         <v>0</v>
@@ -1423,18 +1448,18 @@
       </c>
     </row>
     <row r="14" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="13">
+        <v>303880.71000000002</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21">
-        <v>303880.71000000002</v>
-      </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="10" t="s">
-        <v>37</v>
       </c>
       <c r="H14" s="5">
         <v>47128.480000000003</v>
@@ -1513,18 +1538,18 @@
       </c>
     </row>
     <row r="15" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="13">
+        <v>15181.63</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21">
-        <v>15181.63</v>
-      </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="H15" s="5">
         <v>1418.23</v>
@@ -1603,16 +1628,16 @@
       </c>
     </row>
     <row r="16" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="25">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15">
         <v>1028154.99</v>
       </c>
-      <c r="F16" s="25"/>
+      <c r="F16" s="15"/>
       <c r="G16" s="8">
         <v>680041.3</v>
       </c>
@@ -1694,22 +1719,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:F11"/>
     <mergeCell ref="C5:AF5"/>
     <mergeCell ref="A7:D8"/>
     <mergeCell ref="E7:G7"/>
@@ -1726,6 +1735,22 @@
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>

--- a/storage/app/contractAndFact/17/2022/Контрактация и факт.xlsx
+++ b/storage/app/contractAndFact/17/2022/Контрактация и факт.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/contractAndFact/17/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD333FCB-E808-C940-A9C6-6F9096781749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E554B745-66BE-0B4E-9074-97CC98ECC12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="1320" windowWidth="25420" windowHeight="15820" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2180" yWindow="-30620" windowWidth="30200" windowHeight="11320" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
   <si>
     <t>Реестр контрактов</t>
   </si>
@@ -31,10 +31,10 @@
     <t>Период отчета: 01.01.2022 - 31.12.2022</t>
   </si>
   <si>
-    <t>Граница для факта: 28.09.2022</t>
-  </si>
-  <si>
-    <t>Текущая дата: 27.09.2022</t>
+    <t>Граница для факта: 06.10.2022</t>
+  </si>
+  <si>
+    <t>Текущая дата: 05.10.2022</t>
   </si>
   <si>
     <t>Отбор:</t>
@@ -153,7 +153,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -239,19 +239,6 @@
       <left style="thin">
         <color rgb="FFA0A0A0"/>
       </left>
-      <right style="thin">
-        <color rgb="FFA0A0A0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFA0A0A0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFA0A0A0"/>
-      </left>
       <right/>
       <top style="thin">
         <color rgb="FFA0A0A0"/>
@@ -276,12 +263,12 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFACC8BD"/>
+        <color rgb="FFA0A0A0"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFA0A0A0"/>
-      </top>
+      <right style="thin">
+        <color rgb="FFA0A0A0"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FFA0A0A0"/>
       </bottom>
@@ -291,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -311,6 +298,9 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -320,68 +310,56 @@
     <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -727,8 +705,8 @@
   </sheetPr>
   <dimension ref="A1:AF12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="11.5" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -737,15 +715,15 @@
     <col min="2" max="2" width="2.75" style="1" customWidth="1"/>
     <col min="3" max="4" width="24" style="1" customWidth="1"/>
     <col min="5" max="5" width="2.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.25" style="1" customWidth="1"/>
-    <col min="10" max="17" width="12.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="17" width="12.25" style="1" customWidth="1"/>
     <col min="18" max="19" width="13.25" style="1" customWidth="1"/>
     <col min="20" max="21" width="12.25" style="1" customWidth="1"/>
-    <col min="22" max="23" width="13.25" style="1" customWidth="1"/>
-    <col min="24" max="26" width="12.25" style="1" customWidth="1"/>
+    <col min="22" max="24" width="13.25" style="1" customWidth="1"/>
+    <col min="25" max="25" width="13.5" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.25" style="1" customWidth="1"/>
     <col min="27" max="27" width="8.25" style="1" customWidth="1"/>
     <col min="28" max="28" width="12.25" style="1" customWidth="1"/>
     <col min="29" max="29" width="8.25" style="1" customWidth="1"/>
@@ -804,122 +782,122 @@
         <v>5</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
     </row>
     <row r="8" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="29" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23" t="s">
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24" t="s">
         <v>9</v>
       </c>
       <c r="I9" s="24"/>
-      <c r="J9" s="23" t="s">
+      <c r="J9" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23" t="s">
+      <c r="K9" s="24"/>
+      <c r="L9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23" t="s">
+      <c r="M9" s="24"/>
+      <c r="N9" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23" t="s">
+      <c r="O9" s="24"/>
+      <c r="P9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23" t="s">
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23" t="s">
+      <c r="S9" s="24"/>
+      <c r="T9" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23" t="s">
+      <c r="U9" s="24"/>
+      <c r="V9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23" t="s">
+      <c r="W9" s="24"/>
+      <c r="X9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="23" t="s">
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="23" t="s">
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="AC9" s="23"/>
-      <c r="AD9" s="23" t="s">
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="AE9" s="23"/>
+      <c r="AE9" s="24"/>
       <c r="AF9" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="101" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="23"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="26"/>
       <c r="G10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="11" t="s">
+      <c r="H10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>23</v>
       </c>
       <c r="J10" s="4" t="s">
@@ -993,25 +971,27 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="26"/>
+      <c r="F11" s="27" t="s">
+        <v>29</v>
+      </c>
       <c r="G11" s="6">
-        <v>719375.57</v>
-      </c>
-      <c r="H11" s="15">
+        <v>798861.77</v>
+      </c>
+      <c r="H11" s="6">
         <v>60153.18</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="6">
         <v>59901.61</v>
       </c>
       <c r="J11" s="6">
@@ -1045,138 +1025,137 @@
         <v>112378.92</v>
       </c>
       <c r="T11" s="6">
-        <v>87094.6</v>
+        <v>86969.93</v>
       </c>
       <c r="U11" s="6">
         <v>77236.09</v>
       </c>
       <c r="V11" s="6">
-        <v>117944.55</v>
+        <v>118069.23</v>
       </c>
       <c r="W11" s="6">
         <v>119846.34</v>
       </c>
       <c r="X11" s="6">
-        <v>26520.18</v>
+        <v>118196.9</v>
       </c>
       <c r="Y11" s="6">
-        <v>41222.230000000003</v>
+        <v>120648.88</v>
       </c>
       <c r="Z11" s="6">
-        <v>22981.73</v>
+        <v>17056.12</v>
       </c>
       <c r="AA11" s="7">
+        <v>59.55</v>
+      </c>
+      <c r="AB11" s="6">
+        <v>48694.62</v>
+      </c>
+      <c r="AC11" s="8">
         <v>0</v>
       </c>
-      <c r="AB11" s="6">
-        <v>78673.45</v>
-      </c>
-      <c r="AC11" s="7">
+      <c r="AD11" s="6">
+        <v>129482.54</v>
+      </c>
+      <c r="AE11" s="8">
         <v>0</v>
       </c>
-      <c r="AD11" s="6">
-        <v>150012.09</v>
-      </c>
-      <c r="AE11" s="7">
-        <v>0</v>
-      </c>
       <c r="AF11" s="6">
-        <v>844904.03</v>
+        <v>898051.43</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="28">
-        <v>973664.66</v>
-      </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="9">
-        <v>719375.57</v>
-      </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="9">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="15">
+        <v>1008907.37</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="10">
+        <v>798861.77</v>
+      </c>
+      <c r="H12" s="10">
+        <v>60153.18</v>
+      </c>
+      <c r="I12" s="10">
+        <v>59901.61</v>
+      </c>
+      <c r="J12" s="10">
         <v>82288.56</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="10">
         <v>82540.13</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="10">
         <v>84265.15</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="10">
         <v>80091.100000000006</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="10">
         <v>70505.710000000006</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="10">
         <v>67932.679999999993</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="10">
         <v>80498.539999999994</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="Q12" s="10">
         <v>78226.47</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R12" s="10">
         <v>112726.91</v>
       </c>
-      <c r="S12" s="9">
+      <c r="S12" s="10">
         <v>112378.92</v>
       </c>
-      <c r="T12" s="9">
-        <v>87094.6</v>
-      </c>
-      <c r="U12" s="9">
+      <c r="T12" s="10">
+        <v>86969.93</v>
+      </c>
+      <c r="U12" s="10">
         <v>77236.09</v>
       </c>
-      <c r="V12" s="9">
-        <v>117944.55</v>
-      </c>
-      <c r="W12" s="9">
+      <c r="V12" s="10">
+        <v>118069.23</v>
+      </c>
+      <c r="W12" s="10">
         <v>119846.34</v>
       </c>
-      <c r="X12" s="9">
-        <v>26520.18</v>
-      </c>
-      <c r="Y12" s="9">
-        <v>41222.230000000003</v>
-      </c>
-      <c r="Z12" s="9">
-        <v>22981.73</v>
-      </c>
-      <c r="AA12" s="10">
+      <c r="X12" s="10">
+        <v>118196.9</v>
+      </c>
+      <c r="Y12" s="10">
+        <v>120648.88</v>
+      </c>
+      <c r="Z12" s="10">
+        <v>17056.12</v>
+      </c>
+      <c r="AA12" s="11">
+        <v>59.55</v>
+      </c>
+      <c r="AB12" s="10">
+        <v>48694.62</v>
+      </c>
+      <c r="AC12" s="12">
         <v>0</v>
       </c>
-      <c r="AB12" s="9">
-        <v>78673.45</v>
-      </c>
-      <c r="AC12" s="10">
+      <c r="AD12" s="10">
+        <v>129482.54</v>
+      </c>
+      <c r="AE12" s="12">
         <v>0</v>
       </c>
-      <c r="AD12" s="9">
-        <v>150012.09</v>
-      </c>
-      <c r="AE12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="9">
-        <v>844904.03</v>
+      <c r="AF12" s="10">
+        <v>898051.43</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="D9:D10"/>
+  <mergeCells count="20">
     <mergeCell ref="C7:AF7"/>
     <mergeCell ref="A9:C10"/>
     <mergeCell ref="E9:G9"/>
@@ -1193,12 +1172,16 @@
     <mergeCell ref="AB9:AC9"/>
     <mergeCell ref="AD9:AE9"/>
     <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="D9:D10"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;"Arial,normal"&amp;8Реестр контрактов:  1 января 2022 г. - 31 декабря 2022 г. страница &amp;P из &amp;N</oddHeader>
-    <oddFooter>&amp;R&amp;"Arial,normal"&amp;8Отчет сформирован 27.09.2022 11:24:01 Пользователь: Михненко Мария Александровна</oddFooter>
+    <oddFooter>&amp;R&amp;"Arial,normal"&amp;8Отчет сформирован 05.10.2022 18:00:56 Пользователь: Авдеев Валентин Васильевич</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/storage/app/contractAndFact/17/2022/Контрактация и факт.xlsx
+++ b/storage/app/contractAndFact/17/2022/Контрактация и факт.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/contractAndFact/17/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E554B745-66BE-0B4E-9074-97CC98ECC12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB8F1EA-D5C7-DF4D-8537-55B112B23BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="-30620" windowWidth="30200" windowHeight="11320" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1720" yWindow="-20460" windowWidth="30120" windowHeight="12540" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="autoNoTable"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
   <si>
     <t>Реестр контрактов</t>
   </si>
@@ -31,10 +31,7 @@
     <t>Период отчета: 01.01.2022 - 31.12.2022</t>
   </si>
   <si>
-    <t>Граница для факта: 06.10.2022</t>
-  </si>
-  <si>
-    <t>Текущая дата: 05.10.2022</t>
+    <t>Граница для факта: 15.10.2022</t>
   </si>
   <si>
     <t>Отбор:</t>
@@ -104,10 +101,7 @@
     <t>Итого</t>
   </si>
   <si>
-    <t>Код</t>
-  </si>
-  <si>
-    <t>00-000000</t>
+    <t>Текущая дата: 14.10.2022</t>
   </si>
   <si>
     <t>ГЗ Пульсар</t>
@@ -117,7 +111,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -138,6 +132,12 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -153,7 +153,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -235,50 +235,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFA0A0A0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFA0A0A0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFA0A0A0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFA0A0A0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFA0A0A0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFA0A0A0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFA0A0A0"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFA0A0A0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFA0A0A0"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -292,74 +253,53 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -705,7 +645,7 @@
   </sheetPr>
   <dimension ref="A1:AF12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -713,18 +653,19 @@
   <cols>
     <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="2.75" style="1" customWidth="1"/>
-    <col min="3" max="4" width="24" style="1" customWidth="1"/>
-    <col min="5" max="5" width="2.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3" style="1" customWidth="1"/>
     <col min="9" max="17" width="12.25" style="1" customWidth="1"/>
     <col min="18" max="19" width="13.25" style="1" customWidth="1"/>
     <col min="20" max="21" width="12.25" style="1" customWidth="1"/>
     <col min="22" max="24" width="13.25" style="1" customWidth="1"/>
     <col min="25" max="25" width="13.5" style="1" customWidth="1"/>
     <col min="26" max="26" width="12.25" style="1" customWidth="1"/>
-    <col min="27" max="27" width="8.25" style="1" customWidth="1"/>
+    <col min="27" max="27" width="11.25" style="1" customWidth="1"/>
     <col min="28" max="28" width="12.25" style="1" customWidth="1"/>
     <col min="29" max="29" width="8.25" style="1" customWidth="1"/>
     <col min="30" max="30" width="13.5" style="1" customWidth="1"/>
@@ -740,7 +681,6 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:32" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -755,7 +695,6 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:32" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C5" s="3" t="s">
@@ -765,401 +704,400 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:32" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="3" t="s">
-        <v>4</v>
+      <c r="C6" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:32" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="18"/>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="18"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
     </row>
     <row r="8" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24" t="s">
+      <c r="K9" s="16"/>
+      <c r="L9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24" t="s">
+      <c r="M9" s="16"/>
+      <c r="N9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24" t="s">
+      <c r="O9" s="16"/>
+      <c r="P9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24" t="s">
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24" t="s">
+      <c r="S9" s="16"/>
+      <c r="T9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24" t="s">
+      <c r="U9" s="16"/>
+      <c r="V9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24" t="s">
+      <c r="W9" s="16"/>
+      <c r="X9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24" t="s">
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="24" t="s">
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="AA9" s="24"/>
-      <c r="AB9" s="24" t="s">
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="AC9" s="24"/>
-      <c r="AD9" s="24" t="s">
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="AE9" s="24"/>
-      <c r="AF9" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="101" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="4" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF10" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF10" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="6">
-        <v>798861.77</v>
-      </c>
-      <c r="H11" s="6">
+      <c r="A11" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="18">
         <v>60153.18</v>
       </c>
-      <c r="I11" s="6">
+      <c r="H11" s="18"/>
+      <c r="I11" s="5">
         <v>59901.61</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <v>82288.56</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <v>82540.13</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="5">
         <v>84265.15</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="5">
         <v>80091.100000000006</v>
       </c>
-      <c r="N11" s="6">
-        <v>70505.710000000006</v>
-      </c>
-      <c r="O11" s="6">
+      <c r="N11" s="5">
+        <v>70421.56</v>
+      </c>
+      <c r="O11" s="5">
         <v>67932.679999999993</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="5">
         <v>80498.539999999994</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q11" s="5">
         <v>78226.47</v>
       </c>
-      <c r="R11" s="6">
+      <c r="R11" s="5">
         <v>112726.91</v>
       </c>
-      <c r="S11" s="6">
+      <c r="S11" s="5">
         <v>112378.92</v>
       </c>
-      <c r="T11" s="6">
+      <c r="T11" s="5">
         <v>86969.93</v>
       </c>
-      <c r="U11" s="6">
+      <c r="U11" s="5">
         <v>77236.09</v>
       </c>
-      <c r="V11" s="6">
-        <v>118069.23</v>
-      </c>
-      <c r="W11" s="6">
+      <c r="V11" s="5">
+        <v>118153.38</v>
+      </c>
+      <c r="W11" s="5">
         <v>119846.34</v>
       </c>
-      <c r="X11" s="6">
+      <c r="X11" s="5">
         <v>118196.9</v>
       </c>
-      <c r="Y11" s="6">
+      <c r="Y11" s="5">
         <v>120648.88</v>
       </c>
-      <c r="Z11" s="6">
-        <v>17056.12</v>
-      </c>
-      <c r="AA11" s="7">
-        <v>59.55</v>
-      </c>
-      <c r="AB11" s="6">
-        <v>48694.62</v>
-      </c>
-      <c r="AC11" s="8">
+      <c r="Z11" s="5">
+        <v>18194.97</v>
+      </c>
+      <c r="AA11" s="5">
+        <v>8143</v>
+      </c>
+      <c r="AB11" s="5">
+        <v>47401.01</v>
+      </c>
+      <c r="AC11" s="6">
         <v>0</v>
       </c>
-      <c r="AD11" s="6">
-        <v>129482.54</v>
-      </c>
-      <c r="AE11" s="8">
+      <c r="AD11" s="5">
+        <v>135923.57</v>
+      </c>
+      <c r="AE11" s="6">
         <v>0</v>
       </c>
-      <c r="AF11" s="6">
-        <v>898051.43</v>
+      <c r="AF11" s="5">
+        <v>903650.59</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="15">
-        <v>1008907.37</v>
-      </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="10">
-        <v>798861.77</v>
-      </c>
-      <c r="H12" s="10">
+      <c r="A12" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20">
+        <v>1015193.65</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="7">
+        <v>806945.22</v>
+      </c>
+      <c r="G12" s="20">
         <v>60153.18</v>
       </c>
-      <c r="I12" s="10">
+      <c r="H12" s="20"/>
+      <c r="I12" s="7">
         <v>59901.61</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="7">
         <v>82288.56</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="7">
         <v>82540.13</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="7">
         <v>84265.15</v>
       </c>
-      <c r="M12" s="10">
+      <c r="M12" s="7">
         <v>80091.100000000006</v>
       </c>
-      <c r="N12" s="10">
-        <v>70505.710000000006</v>
-      </c>
-      <c r="O12" s="10">
+      <c r="N12" s="7">
+        <v>70421.56</v>
+      </c>
+      <c r="O12" s="7">
         <v>67932.679999999993</v>
       </c>
-      <c r="P12" s="10">
+      <c r="P12" s="7">
         <v>80498.539999999994</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="Q12" s="7">
         <v>78226.47</v>
       </c>
-      <c r="R12" s="10">
+      <c r="R12" s="7">
         <v>112726.91</v>
       </c>
-      <c r="S12" s="10">
+      <c r="S12" s="7">
         <v>112378.92</v>
       </c>
-      <c r="T12" s="10">
+      <c r="T12" s="7">
         <v>86969.93</v>
       </c>
-      <c r="U12" s="10">
+      <c r="U12" s="7">
         <v>77236.09</v>
       </c>
-      <c r="V12" s="10">
-        <v>118069.23</v>
-      </c>
-      <c r="W12" s="10">
+      <c r="V12" s="7">
+        <v>118153.38</v>
+      </c>
+      <c r="W12" s="7">
         <v>119846.34</v>
       </c>
-      <c r="X12" s="10">
+      <c r="X12" s="7">
         <v>118196.9</v>
       </c>
-      <c r="Y12" s="10">
+      <c r="Y12" s="7">
         <v>120648.88</v>
       </c>
-      <c r="Z12" s="10">
-        <v>17056.12</v>
-      </c>
-      <c r="AA12" s="11">
-        <v>59.55</v>
-      </c>
-      <c r="AB12" s="10">
-        <v>48694.62</v>
-      </c>
-      <c r="AC12" s="12">
+      <c r="Z12" s="7">
+        <v>18194.97</v>
+      </c>
+      <c r="AA12" s="7">
+        <v>8143</v>
+      </c>
+      <c r="AB12" s="7">
+        <v>47401.01</v>
+      </c>
+      <c r="AC12" s="8">
         <v>0</v>
       </c>
-      <c r="AD12" s="10">
-        <v>129482.54</v>
-      </c>
-      <c r="AE12" s="12">
+      <c r="AD12" s="7">
+        <v>135923.57</v>
+      </c>
+      <c r="AE12" s="8">
         <v>0</v>
       </c>
-      <c r="AF12" s="10">
-        <v>898051.43</v>
+      <c r="AF12" s="7">
+        <v>903650.59</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="23">
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G12:H12"/>
     <mergeCell ref="C7:AF7"/>
     <mergeCell ref="A9:C10"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
@@ -1171,17 +1109,13 @@
     <mergeCell ref="Z9:AA9"/>
     <mergeCell ref="AB9:AC9"/>
     <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D10:E10"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;"Arial,normal"&amp;8Реестр контрактов:  1 января 2022 г. - 31 декабря 2022 г. страница &amp;P из &amp;N</oddHeader>
-    <oddFooter>&amp;R&amp;"Arial,normal"&amp;8Отчет сформирован 05.10.2022 18:00:56 Пользователь: Авдеев Валентин Васильевич</oddFooter>
+    <oddFooter>&amp;R&amp;"Arial,normal"&amp;8Отчет сформирован 16.10.2022 19:26:53 Пользователь: Авдеев Валентин Васильевич</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/storage/app/contractAndFact/17/2022/Контрактация и факт.xlsx
+++ b/storage/app/contractAndFact/17/2022/Контрактация и факт.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/contractAndFact/17/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB8F1EA-D5C7-DF4D-8537-55B112B23BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F22C95-1F8A-B445-8EF8-E81912A4F611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1720" yWindow="-20460" windowWidth="30120" windowHeight="12540" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2460" yWindow="-31000" windowWidth="42760" windowHeight="17120" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
   <si>
     <t>Реестр контрактов</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>ТемодержательПредставление</t>
-  </si>
-  <si>
-    <t>Сумма договора</t>
   </si>
   <si>
     <t>Январь</t>
@@ -239,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -269,6 +266,39 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -285,21 +315,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -646,19 +661,17 @@
   <dimension ref="A1:AF12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G16" sqref="F16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="11.5" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="2.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24" style="1" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="3" style="1" customWidth="1"/>
+    <col min="3" max="5" width="24" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.25" style="1" customWidth="1"/>
     <col min="9" max="17" width="12.25" style="1" customWidth="1"/>
     <col min="18" max="19" width="13.25" style="1" customWidth="1"/>
     <col min="20" max="21" width="12.25" style="1" customWidth="1"/>
@@ -681,6 +694,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:32" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -691,237 +705,236 @@
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:32" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:32" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:32" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="21"/>
     </row>
     <row r="8" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="16" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16" t="s">
+      <c r="I9" s="18"/>
+      <c r="J9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16" t="s">
+      <c r="K9" s="18"/>
+      <c r="L9" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16" t="s">
+      <c r="M9" s="18"/>
+      <c r="N9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16" t="s">
+      <c r="O9" s="18"/>
+      <c r="P9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16" t="s">
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16" t="s">
+      <c r="S9" s="18"/>
+      <c r="T9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16" t="s">
+      <c r="U9" s="18"/>
+      <c r="V9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16" t="s">
+      <c r="W9" s="18"/>
+      <c r="X9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16" t="s">
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16" t="s">
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16" t="s">
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="16" t="s">
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="101" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="4" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF10" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF10" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="18">
+      <c r="A11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="15">
         <v>60153.18</v>
       </c>
-      <c r="H11" s="18"/>
       <c r="I11" s="5">
         <v>59901.61</v>
       </c>
@@ -996,22 +1009,20 @@
       </c>
     </row>
     <row r="12" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20">
-        <v>1015193.65</v>
-      </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="7">
+      <c r="A12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="7">
         <v>806945.22</v>
       </c>
-      <c r="G12" s="20">
+      <c r="H12" s="17">
         <v>60153.18</v>
       </c>
-      <c r="H12" s="20"/>
       <c r="I12" s="7">
         <v>59901.61</v>
       </c>
@@ -1086,18 +1097,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G12:H12"/>
+  <mergeCells count="17">
     <mergeCell ref="C7:AF7"/>
     <mergeCell ref="A9:C10"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
@@ -1109,7 +1113,8 @@
     <mergeCell ref="Z9:AA9"/>
     <mergeCell ref="AB9:AC9"/>
     <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>

--- a/storage/app/contractAndFact/17/2022/Контрактация и факт.xlsx
+++ b/storage/app/contractAndFact/17/2022/Контрактация и факт.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/contractAndFact/17/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F22C95-1F8A-B445-8EF8-E81912A4F611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEF4682-655D-E245-9EF0-0A4ED5478170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2460" yWindow="-31000" windowWidth="42760" windowHeight="17120" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="-32940" windowWidth="26080" windowHeight="18780" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="autoNoTable"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
   <si>
     <t>Реестр контрактов</t>
   </si>
@@ -31,7 +31,10 @@
     <t>Период отчета: 01.01.2022 - 31.12.2022</t>
   </si>
   <si>
-    <t>Граница для факта: 15.10.2022</t>
+    <t>Граница для факта: 22.10.2022</t>
+  </si>
+  <si>
+    <t>Текущая дата: 23.10.2022</t>
   </si>
   <si>
     <t>Отбор:</t>
@@ -44,6 +47,9 @@
     <t>ТемодержательПредставление</t>
   </si>
   <si>
+    <t>Сумма договора</t>
+  </si>
+  <si>
     <t>Январь</t>
   </si>
   <si>
@@ -98,7 +104,10 @@
     <t>Итого</t>
   </si>
   <si>
-    <t>Текущая дата: 14.10.2022</t>
+    <t>Код подразделения</t>
+  </si>
+  <si>
+    <t>00-000000</t>
   </si>
   <si>
     <t>ГЗ Пульсар</t>
@@ -133,7 +142,6 @@
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -150,7 +158,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -232,11 +240,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA0A0A0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA0A0A0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFA0A0A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA0A0A0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFA0A0A0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA0A0A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFA0A0A0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA0A0A0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA0A0A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFACC8BD"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFA0A0A0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA0A0A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -250,20 +310,59 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -271,50 +370,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -658,17 +724,18 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF12"/>
+  <dimension ref="A1:AF21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="F16:G16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="11.5" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="2.75" style="1" customWidth="1"/>
-    <col min="3" max="5" width="24" style="1" customWidth="1"/>
+    <col min="3" max="4" width="24" style="1" customWidth="1"/>
+    <col min="5" max="5" width="2.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.25" style="1" customWidth="1"/>
@@ -677,9 +744,7 @@
     <col min="20" max="21" width="12.25" style="1" customWidth="1"/>
     <col min="22" max="24" width="13.25" style="1" customWidth="1"/>
     <col min="25" max="25" width="13.5" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.25" style="1" customWidth="1"/>
-    <col min="27" max="27" width="11.25" style="1" customWidth="1"/>
-    <col min="28" max="28" width="12.25" style="1" customWidth="1"/>
+    <col min="26" max="28" width="12.25" style="1" customWidth="1"/>
     <col min="29" max="29" width="8.25" style="1" customWidth="1"/>
     <col min="30" max="30" width="13.5" style="1" customWidth="1"/>
     <col min="31" max="31" width="8.25" style="1" customWidth="1"/>
@@ -705,8 +770,8 @@
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -715,392 +780,407 @@
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:32" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="C6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:32" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="21"/>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="21"/>
-      <c r="AE7" s="21"/>
-      <c r="AF7" s="21"/>
+      <c r="C7" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="22"/>
+      <c r="AF7" s="22"/>
     </row>
     <row r="8" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18" t="s">
+      <c r="A9" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18" t="s">
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18" t="s">
+      <c r="I9" s="15"/>
+      <c r="J9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18" t="s">
+      <c r="K9" s="15"/>
+      <c r="L9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18" t="s">
+      <c r="M9" s="15"/>
+      <c r="N9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18" t="s">
+      <c r="O9" s="15"/>
+      <c r="P9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18" t="s">
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18" t="s">
+      <c r="S9" s="15"/>
+      <c r="T9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18" t="s">
+      <c r="U9" s="15"/>
+      <c r="V9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="AA9" s="18"/>
-      <c r="AB9" s="18" t="s">
+      <c r="W9" s="15"/>
+      <c r="X9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="18" t="s">
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AE9" s="18"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE9" s="15"/>
       <c r="AF9" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="101" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="15"/>
       <c r="G10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z10" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AC10" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD10" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AE10" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF10" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="15">
+      <c r="A11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="6">
+        <v>843285.22</v>
+      </c>
+      <c r="H11" s="14">
         <v>60153.18</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="6">
         <v>59901.61</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="6">
         <v>82288.56</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="6">
         <v>82540.13</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="6">
         <v>84265.15</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="6">
         <v>80091.100000000006</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="6">
         <v>70421.56</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="6">
         <v>67932.679999999993</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P11" s="6">
         <v>80498.539999999994</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="Q11" s="6">
         <v>78226.47</v>
       </c>
-      <c r="R11" s="5">
+      <c r="R11" s="6">
         <v>112726.91</v>
       </c>
-      <c r="S11" s="5">
+      <c r="S11" s="6">
         <v>112378.92</v>
       </c>
-      <c r="T11" s="5">
+      <c r="T11" s="6">
         <v>86969.93</v>
       </c>
-      <c r="U11" s="5">
+      <c r="U11" s="6">
         <v>77236.09</v>
       </c>
-      <c r="V11" s="5">
+      <c r="V11" s="6">
         <v>118153.38</v>
       </c>
-      <c r="W11" s="5">
+      <c r="W11" s="6">
         <v>119846.34</v>
       </c>
-      <c r="X11" s="5">
+      <c r="X11" s="6">
         <v>118196.9</v>
       </c>
-      <c r="Y11" s="5">
+      <c r="Y11" s="6">
         <v>120648.88</v>
       </c>
-      <c r="Z11" s="5">
-        <v>18194.97</v>
-      </c>
-      <c r="AA11" s="5">
-        <v>8143</v>
-      </c>
-      <c r="AB11" s="5">
-        <v>47401.01</v>
-      </c>
-      <c r="AC11" s="6">
+      <c r="Z11" s="6">
+        <v>60287.4</v>
+      </c>
+      <c r="AA11" s="6">
+        <v>44483</v>
+      </c>
+      <c r="AB11" s="6">
+        <v>37304.199999999997</v>
+      </c>
+      <c r="AC11" s="7">
         <v>0</v>
       </c>
-      <c r="AD11" s="5">
-        <v>135923.57</v>
-      </c>
-      <c r="AE11" s="6">
+      <c r="AD11" s="6">
+        <v>128568.4</v>
+      </c>
+      <c r="AE11" s="7">
         <v>0</v>
       </c>
-      <c r="AF11" s="5">
-        <v>903650.59</v>
+      <c r="AF11" s="6">
+        <v>916590.45</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="7">
-        <v>806945.22</v>
-      </c>
-      <c r="H12" s="17">
+      <c r="A12" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="18">
+        <v>1039834.1099999999</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="9">
+        <v>843285.22</v>
+      </c>
+      <c r="H12" s="12">
         <v>60153.18</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="9">
         <v>59901.61</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="9">
         <v>82288.56</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="9">
         <v>82540.13</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="9">
         <v>84265.15</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="9">
         <v>80091.100000000006</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="9">
         <v>70421.56</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="9">
         <v>67932.679999999993</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="9">
         <v>80498.539999999994</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q12" s="9">
         <v>78226.47</v>
       </c>
-      <c r="R12" s="7">
+      <c r="R12" s="9">
         <v>112726.91</v>
       </c>
-      <c r="S12" s="7">
+      <c r="S12" s="9">
         <v>112378.92</v>
       </c>
-      <c r="T12" s="7">
+      <c r="T12" s="9">
         <v>86969.93</v>
       </c>
-      <c r="U12" s="7">
+      <c r="U12" s="9">
         <v>77236.09</v>
       </c>
-      <c r="V12" s="7">
+      <c r="V12" s="9">
         <v>118153.38</v>
       </c>
-      <c r="W12" s="7">
+      <c r="W12" s="9">
         <v>119846.34</v>
       </c>
-      <c r="X12" s="7">
+      <c r="X12" s="9">
         <v>118196.9</v>
       </c>
-      <c r="Y12" s="7">
+      <c r="Y12" s="9">
         <v>120648.88</v>
       </c>
-      <c r="Z12" s="7">
-        <v>18194.97</v>
-      </c>
-      <c r="AA12" s="7">
-        <v>8143</v>
-      </c>
-      <c r="AB12" s="7">
-        <v>47401.01</v>
-      </c>
-      <c r="AC12" s="8">
+      <c r="Z12" s="9">
+        <v>60287.4</v>
+      </c>
+      <c r="AA12" s="9">
+        <v>44483</v>
+      </c>
+      <c r="AB12" s="9">
+        <v>37304.199999999997</v>
+      </c>
+      <c r="AC12" s="10">
         <v>0</v>
       </c>
-      <c r="AD12" s="7">
-        <v>135923.57</v>
-      </c>
-      <c r="AE12" s="8">
+      <c r="AD12" s="9">
+        <v>128568.4</v>
+      </c>
+      <c r="AE12" s="10">
         <v>0</v>
       </c>
-      <c r="AF12" s="7">
-        <v>903650.59</v>
-      </c>
+      <c r="AF12" s="9">
+        <v>916590.45</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6" ht="11.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F21" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="20">
     <mergeCell ref="C7:AF7"/>
     <mergeCell ref="A9:C10"/>
-    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="E9:G9"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="L9:M9"/>
@@ -1113,14 +1193,17 @@
     <mergeCell ref="Z9:AA9"/>
     <mergeCell ref="AB9:AC9"/>
     <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="E10:F10"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="D9:D10"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;"Arial,normal"&amp;8Реестр контрактов:  1 января 2022 г. - 31 декабря 2022 г. страница &amp;P из &amp;N</oddHeader>
-    <oddFooter>&amp;R&amp;"Arial,normal"&amp;8Отчет сформирован 16.10.2022 19:26:53 Пользователь: Авдеев Валентин Васильевич</oddFooter>
+    <oddFooter>&amp;R&amp;"Arial,normal"&amp;8Отчет сформирован 23.10.2022 20:23:15 Пользователь: Авдеев Валентин Васильевич</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/storage/app/contractAndFact/17/2022/Контрактация и факт.xlsx
+++ b/storage/app/contractAndFact/17/2022/Контрактация и факт.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/contractAndFact/17/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEF4682-655D-E245-9EF0-0A4ED5478170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEA7FAE-C580-9347-979C-C96BCDFE0557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="-32940" windowWidth="26080" windowHeight="18780" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24900" windowHeight="14280" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
   <si>
     <t>Реестр контрактов</t>
   </si>
@@ -31,10 +31,10 @@
     <t>Период отчета: 01.01.2022 - 31.12.2022</t>
   </si>
   <si>
-    <t>Граница для факта: 22.10.2022</t>
-  </si>
-  <si>
-    <t>Текущая дата: 23.10.2022</t>
+    <t>Граница для факта: 31.10.2022</t>
+  </si>
+  <si>
+    <t>Текущая дата: 31.10.2022</t>
   </si>
   <si>
     <t>Отбор:</t>
@@ -102,12 +102,6 @@
   </si>
   <si>
     <t>Итого</t>
-  </si>
-  <si>
-    <t>Код подразделения</t>
-  </si>
-  <si>
-    <t>00-000000</t>
   </si>
   <si>
     <t>ГЗ Пульсар</t>
@@ -127,16 +121,12 @@
       <sz val="18"/>
       <color rgb="FF003F2F"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF003F2F"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -244,19 +234,6 @@
       <left style="thin">
         <color rgb="FFA0A0A0"/>
       </left>
-      <right style="thin">
-        <color rgb="FFA0A0A0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFA0A0A0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFA0A0A0"/>
-      </left>
       <right/>
       <top style="thin">
         <color rgb="FFA0A0A0"/>
@@ -292,11 +269,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFA0A0A0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA0A0A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -310,77 +298,83 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -724,21 +718,21 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF21"/>
+  <dimension ref="A1:AF12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="11.5" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="2.75" style="1" customWidth="1"/>
-    <col min="3" max="4" width="24" style="1" customWidth="1"/>
-    <col min="5" max="5" width="2.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24" style="1" customWidth="1"/>
+    <col min="4" max="5" width="20.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.25" style="1" customWidth="1"/>
     <col min="9" max="17" width="12.25" style="1" customWidth="1"/>
     <col min="18" max="19" width="13.25" style="1" customWidth="1"/>
     <col min="20" max="21" width="12.25" style="1" customWidth="1"/>
@@ -770,9 +764,9 @@
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
@@ -780,9 +774,9 @@
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
@@ -790,9 +784,9 @@
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
@@ -801,119 +795,117 @@
         <v>5</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="22"/>
-      <c r="AC7" s="22"/>
-      <c r="AD7" s="22"/>
-      <c r="AE7" s="22"/>
-      <c r="AF7" s="22"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="17"/>
     </row>
     <row r="8" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="15" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15" t="s">
+      <c r="E9" s="23"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15" t="s">
+      <c r="I9" s="24"/>
+      <c r="J9" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15" t="s">
+      <c r="K9" s="24"/>
+      <c r="L9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15" t="s">
+      <c r="M9" s="24"/>
+      <c r="N9" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15" t="s">
+      <c r="O9" s="24"/>
+      <c r="P9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15" t="s">
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15" t="s">
+      <c r="S9" s="24"/>
+      <c r="T9" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15" t="s">
+      <c r="U9" s="24"/>
+      <c r="V9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15" t="s">
+      <c r="W9" s="24"/>
+      <c r="X9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15" t="s">
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15" t="s">
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15" t="s">
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="AE9" s="15"/>
+      <c r="AE9" s="24"/>
       <c r="AF9" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="101" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="15"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="27"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="9" t="s">
         <v>22</v>
       </c>
       <c r="I10" s="4" t="s">
@@ -990,197 +982,199 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="6">
-        <v>843285.22</v>
-      </c>
-      <c r="H11" s="14">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="30"/>
+      <c r="F11" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="10">
         <v>60153.18</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <v>59901.61</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <v>82288.56</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <v>82540.13</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="5">
         <v>84265.15</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="5">
         <v>80091.100000000006</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="5">
         <v>70421.56</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="5">
         <v>67932.679999999993</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="5">
         <v>80498.539999999994</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q11" s="5">
         <v>78226.47</v>
       </c>
-      <c r="R11" s="6">
+      <c r="R11" s="5">
         <v>112726.91</v>
       </c>
-      <c r="S11" s="6">
+      <c r="S11" s="5">
         <v>112378.92</v>
       </c>
-      <c r="T11" s="6">
+      <c r="T11" s="5">
         <v>86969.93</v>
       </c>
-      <c r="U11" s="6">
+      <c r="U11" s="5">
         <v>77236.09</v>
       </c>
-      <c r="V11" s="6">
+      <c r="V11" s="5">
         <v>118153.38</v>
       </c>
-      <c r="W11" s="6">
+      <c r="W11" s="5">
         <v>119846.34</v>
       </c>
-      <c r="X11" s="6">
+      <c r="X11" s="5">
         <v>118196.9</v>
       </c>
-      <c r="Y11" s="6">
+      <c r="Y11" s="5">
         <v>120648.88</v>
       </c>
-      <c r="Z11" s="6">
-        <v>60287.4</v>
-      </c>
-      <c r="AA11" s="6">
-        <v>44483</v>
-      </c>
-      <c r="AB11" s="6">
-        <v>37304.199999999997</v>
-      </c>
-      <c r="AC11" s="7">
+      <c r="Z11" s="5">
+        <v>105689.1</v>
+      </c>
+      <c r="AA11" s="5">
+        <v>84640.3</v>
+      </c>
+      <c r="AB11" s="5">
+        <v>26606.6</v>
+      </c>
+      <c r="AC11" s="6">
         <v>0</v>
       </c>
-      <c r="AD11" s="6">
-        <v>128568.4</v>
-      </c>
-      <c r="AE11" s="7">
+      <c r="AD11" s="5">
+        <v>121453.7</v>
+      </c>
+      <c r="AE11" s="6">
         <v>0</v>
       </c>
-      <c r="AF11" s="6">
-        <v>916590.45</v>
+      <c r="AF11" s="5">
+        <v>969598.54</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="18">
-        <v>1039834.1099999999</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="9">
-        <v>843285.22</v>
-      </c>
-      <c r="H12" s="12">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15">
+        <v>1068626.1000000001</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="7">
+        <v>883442.52</v>
+      </c>
+      <c r="H12" s="11">
         <v>60153.18</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="7">
         <v>59901.61</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="7">
         <v>82288.56</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="7">
         <v>82540.13</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="7">
         <v>84265.15</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="7">
         <v>80091.100000000006</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="7">
         <v>70421.56</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="7">
         <v>67932.679999999993</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="7">
         <v>80498.539999999994</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="Q12" s="7">
         <v>78226.47</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R12" s="7">
         <v>112726.91</v>
       </c>
-      <c r="S12" s="9">
+      <c r="S12" s="7">
         <v>112378.92</v>
       </c>
-      <c r="T12" s="9">
+      <c r="T12" s="7">
         <v>86969.93</v>
       </c>
-      <c r="U12" s="9">
+      <c r="U12" s="7">
         <v>77236.09</v>
       </c>
-      <c r="V12" s="9">
+      <c r="V12" s="7">
         <v>118153.38</v>
       </c>
-      <c r="W12" s="9">
+      <c r="W12" s="7">
         <v>119846.34</v>
       </c>
-      <c r="X12" s="9">
+      <c r="X12" s="7">
         <v>118196.9</v>
       </c>
-      <c r="Y12" s="9">
+      <c r="Y12" s="7">
         <v>120648.88</v>
       </c>
-      <c r="Z12" s="9">
-        <v>60287.4</v>
-      </c>
-      <c r="AA12" s="9">
-        <v>44483</v>
-      </c>
-      <c r="AB12" s="9">
-        <v>37304.199999999997</v>
-      </c>
-      <c r="AC12" s="10">
+      <c r="Z12" s="7">
+        <v>105689.1</v>
+      </c>
+      <c r="AA12" s="7">
+        <v>84640.3</v>
+      </c>
+      <c r="AB12" s="7">
+        <v>26606.6</v>
+      </c>
+      <c r="AC12" s="8">
         <v>0</v>
       </c>
-      <c r="AD12" s="9">
-        <v>128568.4</v>
-      </c>
-      <c r="AE12" s="10">
+      <c r="AD12" s="7">
+        <v>121453.7</v>
+      </c>
+      <c r="AE12" s="8">
         <v>0</v>
       </c>
-      <c r="AF12" s="9">
-        <v>916590.45</v>
-      </c>
-    </row>
-    <row r="21" spans="6:6" ht="11.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F21" s="13"/>
+      <c r="AF12" s="7">
+        <v>969598.54</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="19">
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:F12"/>
     <mergeCell ref="C7:AF7"/>
     <mergeCell ref="A9:C10"/>
-    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="D9:G9"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="L9:M9"/>
@@ -1190,20 +1184,12 @@
     <mergeCell ref="T9:U9"/>
     <mergeCell ref="V9:W9"/>
     <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="D9:D10"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;"Arial,normal"&amp;8Реестр контрактов:  1 января 2022 г. - 31 декабря 2022 г. страница &amp;P из &amp;N</oddHeader>
-    <oddFooter>&amp;R&amp;"Arial,normal"&amp;8Отчет сформирован 23.10.2022 20:23:15 Пользователь: Авдеев Валентин Васильевич</oddFooter>
+    <oddFooter>&amp;R&amp;"Arial,normal"&amp;8Отчет сформирован 31.10.2022 8:13:28 Пользователь: Авдеев Валентин Васильевич</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/storage/app/contractAndFact/17/2022/Контрактация и факт.xlsx
+++ b/storage/app/contractAndFact/17/2022/Контрактация и факт.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/contractAndFact/17/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEA7FAE-C580-9347-979C-C96BCDFE0557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7635E5-6748-A14C-8AED-BB2F8AC2529A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24900" windowHeight="14280" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27120" windowHeight="13800" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -31,16 +31,16 @@
     <t>Период отчета: 01.01.2022 - 31.12.2022</t>
   </si>
   <si>
-    <t>Граница для факта: 31.10.2022</t>
-  </si>
-  <si>
-    <t>Текущая дата: 31.10.2022</t>
+    <t>Граница для факта: 04.11.2022</t>
+  </si>
+  <si>
+    <t>Текущая дата: 03.11.2022</t>
   </si>
   <si>
     <t>Отбор:</t>
   </si>
   <si>
-    <t>Этап Не в списке "Складской запас; Договор № 21/487-22 от 18..." И
+    <t>Этап Не в списке "Складской запас; Договор № 21/487-22 от 18...; Договор-счет № ДС 22-0713..." И
 Этап.Статус В списке "Действует; Закрыт"</t>
   </si>
   <si>
@@ -148,7 +148,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -256,35 +256,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFACC8BD"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFA0A0A0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFA0A0A0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFA0A0A0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFA0A0A0"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -310,71 +286,44 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -729,17 +678,20 @@
     <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="2.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.25" style="1" customWidth="1"/>
-    <col min="9" max="17" width="12.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.25" style="1" customWidth="1"/>
+    <col min="10" max="17" width="12.25" style="1" customWidth="1"/>
     <col min="18" max="19" width="13.25" style="1" customWidth="1"/>
     <col min="20" max="21" width="12.25" style="1" customWidth="1"/>
     <col min="22" max="24" width="13.25" style="1" customWidth="1"/>
-    <col min="25" max="25" width="13.5" style="1" customWidth="1"/>
-    <col min="26" max="28" width="12.25" style="1" customWidth="1"/>
-    <col min="29" max="29" width="8.25" style="1" customWidth="1"/>
+    <col min="25" max="26" width="13.5" style="1" customWidth="1"/>
+    <col min="27" max="27" width="13.25" style="1" customWidth="1"/>
+    <col min="28" max="28" width="12.25" style="1" customWidth="1"/>
+    <col min="29" max="29" width="11.25" style="1" customWidth="1"/>
     <col min="30" max="30" width="13.5" style="1" customWidth="1"/>
     <col min="31" max="31" width="8.25" style="1" customWidth="1"/>
     <col min="32" max="32" width="21" style="1" customWidth="1"/>
@@ -753,7 +705,6 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:32" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -764,9 +715,9 @@
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
@@ -774,9 +725,9 @@
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
@@ -784,9 +735,9 @@
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
@@ -795,122 +746,95 @@
         <v>5</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="17"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="23" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="24" t="s">
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24" t="s">
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24" t="s">
+      <c r="K9" s="14"/>
+      <c r="L9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24" t="s">
+      <c r="M9" s="14"/>
+      <c r="N9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24" t="s">
+      <c r="O9" s="14"/>
+      <c r="P9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24" t="s">
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24" t="s">
+      <c r="S9" s="14"/>
+      <c r="T9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24" t="s">
+      <c r="U9" s="14"/>
+      <c r="V9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24" t="s">
+      <c r="W9" s="14"/>
+      <c r="X9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="24" t="s">
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="AA9" s="24"/>
-      <c r="AB9" s="24" t="s">
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="AC9" s="24"/>
-      <c r="AD9" s="24" t="s">
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="AE9" s="24"/>
+      <c r="AE9" s="14"/>
       <c r="AF9" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="101" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="25"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="G10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>23</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="14"/>
       <c r="J10" s="4" t="s">
         <v>22</v>
       </c>
@@ -982,27 +906,27 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="29" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="26" t="s">
+      <c r="E11" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="F11" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="10">
+      <c r="G11" s="5">
         <v>60153.18</v>
       </c>
-      <c r="I11" s="5">
+      <c r="H11" s="16">
         <v>59901.61</v>
       </c>
+      <c r="I11" s="16"/>
       <c r="J11" s="5">
         <v>82288.56</v>
       </c>
@@ -1028,7 +952,7 @@
         <v>78226.47</v>
       </c>
       <c r="R11" s="5">
-        <v>112726.91</v>
+        <v>113929.41</v>
       </c>
       <c r="S11" s="5">
         <v>112378.92</v>
@@ -1052,47 +976,47 @@
         <v>120648.88</v>
       </c>
       <c r="Z11" s="5">
-        <v>105689.1</v>
+        <v>104691.93</v>
       </c>
       <c r="AA11" s="5">
-        <v>84640.3</v>
+        <v>114331.55</v>
       </c>
       <c r="AB11" s="5">
-        <v>26606.6</v>
-      </c>
-      <c r="AC11" s="6">
-        <v>0</v>
+        <v>19567.2</v>
+      </c>
+      <c r="AC11" s="5">
+        <v>547.79999999999995</v>
       </c>
       <c r="AD11" s="5">
-        <v>121453.7</v>
+        <v>122747.16</v>
       </c>
       <c r="AE11" s="6">
         <v>0</v>
       </c>
       <c r="AF11" s="5">
-        <v>969598.54</v>
+        <v>962352.57</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15">
-        <v>1068626.1000000001</v>
-      </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18">
+        <v>1061882.8999999997</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="7">
+        <v>913681.57000000007</v>
+      </c>
       <c r="G12" s="7">
-        <v>883442.52</v>
-      </c>
-      <c r="H12" s="11">
         <v>60153.18</v>
       </c>
-      <c r="I12" s="7">
+      <c r="H12" s="20">
         <v>59901.61</v>
       </c>
+      <c r="I12" s="20"/>
       <c r="J12" s="7">
         <v>82288.56</v>
       </c>
@@ -1118,7 +1042,7 @@
         <v>78226.47</v>
       </c>
       <c r="R12" s="7">
-        <v>112726.91</v>
+        <v>113929.41</v>
       </c>
       <c r="S12" s="7">
         <v>112378.92</v>
@@ -1142,54 +1066,57 @@
         <v>120648.88</v>
       </c>
       <c r="Z12" s="7">
-        <v>105689.1</v>
+        <v>104691.93</v>
       </c>
       <c r="AA12" s="7">
-        <v>84640.3</v>
+        <v>114331.55</v>
       </c>
       <c r="AB12" s="7">
-        <v>26606.6</v>
-      </c>
-      <c r="AC12" s="8">
-        <v>0</v>
+        <v>19567.2</v>
+      </c>
+      <c r="AC12" s="7">
+        <v>547.79999999999995</v>
       </c>
       <c r="AD12" s="7">
-        <v>121453.7</v>
+        <v>122747.16</v>
       </c>
       <c r="AE12" s="8">
         <v>0</v>
       </c>
       <c r="AF12" s="7">
-        <v>969598.54</v>
+        <v>962352.57</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="22">
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
     <mergeCell ref="Z9:AA9"/>
     <mergeCell ref="AB9:AC9"/>
     <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="C7:AF7"/>
-    <mergeCell ref="A9:C10"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="H10:I10"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;"Arial,normal"&amp;8Реестр контрактов:  1 января 2022 г. - 31 декабря 2022 г. страница &amp;P из &amp;N</oddHeader>
-    <oddFooter>&amp;R&amp;"Arial,normal"&amp;8Отчет сформирован 31.10.2022 8:13:28 Пользователь: Авдеев Валентин Васильевич</oddFooter>
+    <oddFooter>&amp;R&amp;"Arial,normal"&amp;8Отчет сформирован 03.11.2022 16:03:23 Пользователь: Авдеев Валентин Васильевич</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/storage/app/contractAndFact/17/2022/Контрактация и факт.xlsx
+++ b/storage/app/contractAndFact/17/2022/Контрактация и факт.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/contractAndFact/17/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7635E5-6748-A14C-8AED-BB2F8AC2529A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082E62EE-A65A-A345-BC71-509B796911B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27120" windowHeight="13800" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="720" windowWidth="32720" windowHeight="15820" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -256,11 +256,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFA0A0A0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA0A0A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -286,6 +297,27 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -301,29 +333,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -670,7 +687,7 @@
   <dimension ref="A1:AF12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D10" sqref="D10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="11.5" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -678,12 +695,11 @@
     <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="2.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.25" style="1" customWidth="1"/>
+    <col min="4" max="5" width="2.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5" style="1" customWidth="1"/>
     <col min="10" max="17" width="12.25" style="1" customWidth="1"/>
     <col min="18" max="19" width="13.25" style="1" customWidth="1"/>
     <col min="20" max="21" width="12.25" style="1" customWidth="1"/>
@@ -705,6 +721,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:32" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -720,6 +737,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:32" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C5" s="3" t="s">
@@ -730,6 +748,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:32" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C6" s="3" t="s">
@@ -740,101 +759,103 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:32" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="14" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14" t="s">
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14" t="s">
+      <c r="I9" s="15"/>
+      <c r="J9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14" t="s">
+      <c r="K9" s="15"/>
+      <c r="L9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14" t="s">
+      <c r="M9" s="15"/>
+      <c r="N9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14" t="s">
+      <c r="O9" s="15"/>
+      <c r="P9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14" t="s">
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14" t="s">
+      <c r="S9" s="15"/>
+      <c r="T9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14" t="s">
+      <c r="U9" s="15"/>
+      <c r="V9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14" t="s">
+      <c r="W9" s="15"/>
+      <c r="X9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14" t="s">
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14" t="s">
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="14" t="s">
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="AE9" s="14"/>
+      <c r="AE9" s="15"/>
       <c r="AF9" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="101" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
       <c r="G10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="J10" s="4" t="s">
         <v>22</v>
       </c>
@@ -906,27 +927,27 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="21" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="10"/>
+      <c r="F11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="G11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="5">
+      <c r="H11" s="5">
         <v>60153.18</v>
       </c>
-      <c r="H11" s="16">
+      <c r="I11" s="23">
         <v>59901.61</v>
       </c>
-      <c r="I11" s="16"/>
       <c r="J11" s="5">
         <v>82288.56</v>
       </c>
@@ -998,25 +1019,25 @@
       </c>
     </row>
     <row r="12" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13">
         <v>1061882.8999999997</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="7">
+      <c r="E12" s="22"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="7">
         <v>913681.57000000007</v>
       </c>
-      <c r="G12" s="7">
+      <c r="H12" s="7">
         <v>60153.18</v>
       </c>
-      <c r="H12" s="20">
+      <c r="I12" s="21">
         <v>59901.61</v>
       </c>
-      <c r="I12" s="20"/>
       <c r="J12" s="7">
         <v>82288.56</v>
       </c>
@@ -1088,29 +1109,26 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="H12:I12"/>
+  <mergeCells count="19">
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:U9"/>
     <mergeCell ref="V9:W9"/>
     <mergeCell ref="X9:Y9"/>
     <mergeCell ref="Z9:AA9"/>
     <mergeCell ref="AB9:AC9"/>
     <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A9:C10"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:F12"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>

--- a/storage/app/contractAndFact/17/2022/Контрактация и факт.xlsx
+++ b/storage/app/contractAndFact/17/2022/Контрактация и факт.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/contractAndFact/17/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082E62EE-A65A-A345-BC71-509B796911B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101B13C9-B628-E846-B318-4392D688C5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="720" windowWidth="32720" windowHeight="15820" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="-33120" windowWidth="33460" windowHeight="18080" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
   <si>
     <t>Реестр контрактов</t>
   </si>
@@ -31,10 +31,10 @@
     <t>Период отчета: 01.01.2022 - 31.12.2022</t>
   </si>
   <si>
-    <t>Граница для факта: 04.11.2022</t>
-  </si>
-  <si>
-    <t>Текущая дата: 03.11.2022</t>
+    <t>Граница для факта: 15.11.2022</t>
+  </si>
+  <si>
+    <t>Текущая дата: 11.11.2022</t>
   </si>
   <si>
     <t>Отбор:</t>
@@ -47,9 +47,6 @@
     <t>ТемодержательПредставление</t>
   </si>
   <si>
-    <t>Сумма договора</t>
-  </si>
-  <si>
     <t>Январь</t>
   </si>
   <si>
@@ -102,6 +99,12 @@
   </si>
   <si>
     <t>Итого</t>
+  </si>
+  <si>
+    <t>Код</t>
+  </si>
+  <si>
+    <t>00-000000</t>
   </si>
   <si>
     <t>ГЗ Пульсар</t>
@@ -148,7 +151,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -234,6 +237,19 @@
       <left style="thin">
         <color rgb="FFA0A0A0"/>
       </left>
+      <right style="thin">
+        <color rgb="FFA0A0A0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFA0A0A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA0A0A0"/>
+      </left>
       <right/>
       <top style="thin">
         <color rgb="FFA0A0A0"/>
@@ -257,7 +273,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FFACC8BD"/>
+      </left>
       <right/>
       <top style="thin">
         <color rgb="FFA0A0A0"/>
@@ -271,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -285,62 +303,80 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,29 +722,27 @@
   </sheetPr>
   <dimension ref="A1:AF12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:G10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="11.5" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="2.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24" style="1" customWidth="1"/>
-    <col min="4" max="5" width="2.75" style="1" customWidth="1"/>
+    <col min="3" max="5" width="24" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="1" customWidth="1"/>
     <col min="10" max="17" width="12.25" style="1" customWidth="1"/>
     <col min="18" max="19" width="13.25" style="1" customWidth="1"/>
     <col min="20" max="21" width="12.25" style="1" customWidth="1"/>
     <col min="22" max="24" width="13.25" style="1" customWidth="1"/>
     <col min="25" max="26" width="13.5" style="1" customWidth="1"/>
     <col min="27" max="27" width="13.25" style="1" customWidth="1"/>
-    <col min="28" max="28" width="12.25" style="1" customWidth="1"/>
-    <col min="29" max="29" width="11.25" style="1" customWidth="1"/>
-    <col min="30" max="30" width="13.5" style="1" customWidth="1"/>
+    <col min="28" max="29" width="12.25" style="1" customWidth="1"/>
+    <col min="30" max="30" width="13.25" style="1" customWidth="1"/>
     <col min="31" max="31" width="8.25" style="1" customWidth="1"/>
     <col min="32" max="32" width="21" style="1" customWidth="1"/>
   </cols>
@@ -766,356 +800,354 @@
         <v>5</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
     </row>
     <row r="8" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="15" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15" t="s">
+      <c r="I9" s="20"/>
+      <c r="J9" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15" t="s">
+      <c r="K9" s="20"/>
+      <c r="L9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15" t="s">
+      <c r="M9" s="20"/>
+      <c r="N9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15" t="s">
+      <c r="O9" s="20"/>
+      <c r="P9" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15" t="s">
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15" t="s">
+      <c r="S9" s="20"/>
+      <c r="T9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15" t="s">
+      <c r="U9" s="20"/>
+      <c r="V9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15" t="s">
+      <c r="W9" s="20"/>
+      <c r="X9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15" t="s">
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15" t="s">
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15" t="s">
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15" t="s">
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="101" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF10" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF10" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="5">
+      <c r="F11" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="6">
         <v>60153.18</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="27">
         <v>59901.61</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="6">
         <v>82288.56</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="6">
         <v>82540.13</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="6">
         <v>84265.15</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="6">
         <v>80091.100000000006</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="6">
         <v>70421.56</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="6">
         <v>67932.679999999993</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P11" s="6">
         <v>80498.539999999994</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="Q11" s="6">
         <v>78226.47</v>
       </c>
-      <c r="R11" s="5">
-        <v>113929.41</v>
-      </c>
-      <c r="S11" s="5">
+      <c r="R11" s="6">
+        <v>113929.2</v>
+      </c>
+      <c r="S11" s="6">
         <v>112378.92</v>
       </c>
-      <c r="T11" s="5">
+      <c r="T11" s="6">
         <v>86969.93</v>
       </c>
-      <c r="U11" s="5">
+      <c r="U11" s="6">
         <v>77236.09</v>
       </c>
-      <c r="V11" s="5">
+      <c r="V11" s="6">
         <v>118153.38</v>
       </c>
-      <c r="W11" s="5">
+      <c r="W11" s="6">
         <v>119846.34</v>
       </c>
-      <c r="X11" s="5">
+      <c r="X11" s="6">
         <v>118196.9</v>
       </c>
-      <c r="Y11" s="5">
+      <c r="Y11" s="6">
         <v>120648.88</v>
       </c>
-      <c r="Z11" s="5">
+      <c r="Z11" s="6">
         <v>104691.93</v>
       </c>
-      <c r="AA11" s="5">
+      <c r="AA11" s="6">
         <v>114331.55</v>
       </c>
-      <c r="AB11" s="5">
-        <v>19567.2</v>
-      </c>
-      <c r="AC11" s="5">
-        <v>547.79999999999995</v>
-      </c>
-      <c r="AD11" s="5">
-        <v>122747.16</v>
-      </c>
-      <c r="AE11" s="6">
+      <c r="AB11" s="6">
+        <v>35635.5</v>
+      </c>
+      <c r="AC11" s="6">
+        <v>21460.400000000001</v>
+      </c>
+      <c r="AD11" s="6">
+        <v>109398</v>
+      </c>
+      <c r="AE11" s="7">
         <v>0</v>
       </c>
-      <c r="AF11" s="5">
-        <v>962352.57</v>
+      <c r="AF11" s="6">
+        <v>963581.96</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13">
-        <v>1061882.8999999997</v>
-      </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="7">
-        <v>913681.57000000007</v>
-      </c>
-      <c r="H12" s="7">
+      <c r="A12" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="17">
+        <v>1064601.8299999998</v>
+      </c>
+      <c r="G12" s="9">
+        <v>934594.17</v>
+      </c>
+      <c r="H12" s="9">
         <v>60153.18</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="16">
         <v>59901.61</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="9">
         <v>82288.56</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="9">
         <v>82540.13</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="9">
         <v>84265.15</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="9">
         <v>80091.100000000006</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="9">
         <v>70421.56</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="9">
         <v>67932.679999999993</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="9">
         <v>80498.539999999994</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q12" s="9">
         <v>78226.47</v>
       </c>
-      <c r="R12" s="7">
-        <v>113929.41</v>
-      </c>
-      <c r="S12" s="7">
+      <c r="R12" s="9">
+        <v>113929.2</v>
+      </c>
+      <c r="S12" s="9">
         <v>112378.92</v>
       </c>
-      <c r="T12" s="7">
+      <c r="T12" s="9">
         <v>86969.93</v>
       </c>
-      <c r="U12" s="7">
+      <c r="U12" s="9">
         <v>77236.09</v>
       </c>
-      <c r="V12" s="7">
+      <c r="V12" s="9">
         <v>118153.38</v>
       </c>
-      <c r="W12" s="7">
+      <c r="W12" s="9">
         <v>119846.34</v>
       </c>
-      <c r="X12" s="7">
+      <c r="X12" s="9">
         <v>118196.9</v>
       </c>
-      <c r="Y12" s="7">
+      <c r="Y12" s="9">
         <v>120648.88</v>
       </c>
-      <c r="Z12" s="7">
+      <c r="Z12" s="9">
         <v>104691.93</v>
       </c>
-      <c r="AA12" s="7">
+      <c r="AA12" s="9">
         <v>114331.55</v>
       </c>
-      <c r="AB12" s="7">
-        <v>19567.2</v>
-      </c>
-      <c r="AC12" s="7">
-        <v>547.79999999999995</v>
-      </c>
-      <c r="AD12" s="7">
-        <v>122747.16</v>
-      </c>
-      <c r="AE12" s="8">
+      <c r="AB12" s="9">
+        <v>35635.5</v>
+      </c>
+      <c r="AC12" s="9">
+        <v>21460.400000000001</v>
+      </c>
+      <c r="AD12" s="9">
+        <v>109398</v>
+      </c>
+      <c r="AE12" s="10">
         <v>0</v>
       </c>
-      <c r="AF12" s="7">
-        <v>962352.57</v>
+      <c r="AF12" s="9">
+        <v>963581.96</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="18">
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="A9:C10"/>
-    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="F9:G9"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="J9:K9"/>
-    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="E9:E10"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="P9:Q9"/>
@@ -1128,13 +1160,12 @@
     <mergeCell ref="AD9:AE9"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:F12"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;"Arial,normal"&amp;8Реестр контрактов:  1 января 2022 г. - 31 декабря 2022 г. страница &amp;P из &amp;N</oddHeader>
-    <oddFooter>&amp;R&amp;"Arial,normal"&amp;8Отчет сформирован 03.11.2022 16:03:23 Пользователь: Авдеев Валентин Васильевич</oddFooter>
+    <oddFooter>&amp;R&amp;"Arial,normal"&amp;8Отчет сформирован 11.11.2022 16:51:56 Пользователь: Авдеев Валентин Васильевич</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/storage/app/contractAndFact/17/2022/Контрактация и факт.xlsx
+++ b/storage/app/contractAndFact/17/2022/Контрактация и факт.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/contractAndFact/17/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101B13C9-B628-E846-B318-4392D688C5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776FFFAF-43C1-4848-A6CE-EFD8BE0527DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="-33120" windowWidth="33460" windowHeight="18080" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6280" yWindow="-28020" windowWidth="31340" windowHeight="14700" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t>Реестр контрактов</t>
   </si>
@@ -28,13 +28,13 @@
     <t>Параметры:</t>
   </si>
   <si>
-    <t>Период отчета: 01.01.2022 - 31.12.2022</t>
-  </si>
-  <si>
-    <t>Граница для факта: 15.11.2022</t>
-  </si>
-  <si>
-    <t>Текущая дата: 11.11.2022</t>
+    <t>Период отчета: 01.01.2022 - 31.12.2023</t>
+  </si>
+  <si>
+    <t>Граница для факта: 21.11.2022</t>
+  </si>
+  <si>
+    <t>Текущая дата: 18.11.2022</t>
   </si>
   <si>
     <t>Отбор:</t>
@@ -44,9 +44,6 @@
 Этап.Статус В списке "Действует; Закрыт"</t>
   </si>
   <si>
-    <t>ТемодержательПредставление</t>
-  </si>
-  <si>
     <t>Январь</t>
   </si>
   <si>
@@ -107,14 +104,14 @@
     <t>00-000000</t>
   </si>
   <si>
-    <t>ГЗ Пульсар</t>
+    <t>Темодержатель</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -124,15 +121,12 @@
       <sz val="18"/>
       <color rgb="FF003F2F"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF003F2F"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -151,7 +145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -235,45 +229,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFA0A0A0"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFA0A0A0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFA0A0A0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFA0A0A0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFA0A0A0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFA0A0A0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFA0A0A0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFA0A0A0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFA0A0A0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFACC8BD"/>
       </left>
       <right/>
@@ -285,11 +240,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFACC8BD"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA0A0A0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA0A0A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA0A0A0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFA0A0A0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA0A0A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFA0A0A0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA0A0A0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA0A0A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFA0A0A0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA0A0A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA0A0A0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA0A0A0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFA0A0A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA0A0A0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFA0A0A0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFA0A0A0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFA0A0A0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA0A0A0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -303,80 +352,89 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -720,35 +778,39 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF12"/>
+  <dimension ref="A1:AG15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="11.5" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.75" style="1" customWidth="1"/>
-    <col min="3" max="5" width="24" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="1" customWidth="1"/>
-    <col min="10" max="17" width="12.25" style="1" customWidth="1"/>
-    <col min="18" max="19" width="13.25" style="1" customWidth="1"/>
-    <col min="20" max="21" width="12.25" style="1" customWidth="1"/>
-    <col min="22" max="24" width="13.25" style="1" customWidth="1"/>
-    <col min="25" max="26" width="13.5" style="1" customWidth="1"/>
-    <col min="27" max="27" width="13.25" style="1" customWidth="1"/>
-    <col min="28" max="29" width="12.25" style="1" customWidth="1"/>
-    <col min="30" max="30" width="13.25" style="1" customWidth="1"/>
-    <col min="31" max="31" width="8.25" style="1" customWidth="1"/>
-    <col min="32" max="32" width="21" style="1" customWidth="1"/>
+    <col min="1" max="6" width="17" style="1" customWidth="1"/>
+    <col min="7" max="8" width="24" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.25" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.25" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.25" style="1" customWidth="1"/>
+    <col min="19" max="20" width="13.25" style="1" customWidth="1"/>
+    <col min="21" max="22" width="12.25" style="1" customWidth="1"/>
+    <col min="23" max="25" width="13.25" style="1" customWidth="1"/>
+    <col min="26" max="27" width="13.5" style="1" customWidth="1"/>
+    <col min="28" max="28" width="13.25" style="1" customWidth="1"/>
+    <col min="29" max="30" width="12.25" style="1" customWidth="1"/>
+    <col min="31" max="31" width="13.5" style="1" customWidth="1"/>
+    <col min="32" max="32" width="8.25" style="1" customWidth="1"/>
+    <col min="33" max="33" width="21" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="1:32" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:33" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="1:33" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -756,416 +818,416 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:32" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:33" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:33" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:32" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C5" s="3" t="s">
+    <row r="5" spans="1:33" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="G5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:32" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="3" t="s">
+    <row r="6" spans="1:33" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="G6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:32" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:33" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="H7" s="20"/>
     </row>
-    <row r="8" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="22" t="s">
+    <row r="8" spans="1:33" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:33" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20" t="s">
+      <c r="J9" s="21"/>
+      <c r="K9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20" t="s">
+      <c r="L9" s="21"/>
+      <c r="M9" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20" t="s">
+      <c r="N9" s="21"/>
+      <c r="O9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20" t="s">
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20" t="s">
+      <c r="R9" s="21"/>
+      <c r="S9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20" t="s">
+      <c r="T9" s="21"/>
+      <c r="U9" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20" t="s">
+      <c r="V9" s="21"/>
+      <c r="W9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20" t="s">
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20" t="s">
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20" t="s">
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20" t="s">
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="AC9" s="20"/>
-      <c r="AD9" s="20" t="s">
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="4" t="s">
+    </row>
+    <row r="10" spans="1:33" ht="101" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="30"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" ht="101" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="4" t="s">
+      <c r="J10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="K10" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="T10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="V10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="X10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Z10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AB10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="AC10" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AD10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="AE10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AF10" s="4" t="s">
+    </row>
+    <row r="11" spans="1:33" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="15" t="s">
         <v>23</v>
       </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="5">
+        <v>60153.18</v>
+      </c>
+      <c r="J11" s="13">
+        <v>59901.61</v>
+      </c>
+      <c r="K11" s="5">
+        <v>82288.56</v>
+      </c>
+      <c r="L11" s="5">
+        <v>82540.13</v>
+      </c>
+      <c r="M11" s="5">
+        <v>84265.15</v>
+      </c>
+      <c r="N11" s="5">
+        <v>80091.100000000006</v>
+      </c>
+      <c r="O11" s="5">
+        <v>70421.56</v>
+      </c>
+      <c r="P11" s="5">
+        <v>67932.679999999993</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>80498.539999999994</v>
+      </c>
+      <c r="R11" s="5">
+        <v>78226.47</v>
+      </c>
+      <c r="S11" s="5">
+        <v>112726.91</v>
+      </c>
+      <c r="T11" s="5">
+        <v>112378.92</v>
+      </c>
+      <c r="U11" s="5">
+        <v>88172.390000000189</v>
+      </c>
+      <c r="V11" s="5">
+        <v>77236.09</v>
+      </c>
+      <c r="W11" s="5">
+        <v>118153.38</v>
+      </c>
+      <c r="X11" s="5">
+        <v>119846.34</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>118196.9</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>120648.88</v>
+      </c>
+      <c r="AA11" s="5">
+        <v>104691.93</v>
+      </c>
+      <c r="AB11" s="5">
+        <v>114331.55</v>
+      </c>
+      <c r="AC11" s="5">
+        <v>63579.199999999997</v>
+      </c>
+      <c r="AD11" s="5">
+        <v>49795.3</v>
+      </c>
+      <c r="AE11" s="5">
+        <v>114486.6</v>
+      </c>
+      <c r="AF11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="5">
+        <v>1292242.3899999999</v>
+      </c>
     </row>
-    <row r="11" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="18" t="s">
+    <row r="12" spans="1:33" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="6">
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="8">
         <v>60153.18</v>
       </c>
-      <c r="I11" s="27">
+      <c r="J12" s="12">
         <v>59901.61</v>
       </c>
-      <c r="J11" s="6">
+      <c r="K12" s="8">
         <v>82288.56</v>
       </c>
-      <c r="K11" s="6">
+      <c r="L12" s="8">
         <v>82540.13</v>
       </c>
-      <c r="L11" s="6">
+      <c r="M12" s="8">
         <v>84265.15</v>
       </c>
-      <c r="M11" s="6">
+      <c r="N12" s="8">
         <v>80091.100000000006</v>
       </c>
-      <c r="N11" s="6">
+      <c r="O12" s="8">
         <v>70421.56</v>
       </c>
-      <c r="O11" s="6">
+      <c r="P12" s="8">
         <v>67932.679999999993</v>
       </c>
-      <c r="P11" s="6">
+      <c r="Q12" s="8">
         <v>80498.539999999994</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="R12" s="8">
         <v>78226.47</v>
       </c>
-      <c r="R11" s="6">
-        <v>113929.2</v>
-      </c>
-      <c r="S11" s="6">
+      <c r="S12" s="8">
+        <v>112726.91</v>
+      </c>
+      <c r="T12" s="8">
         <v>112378.92</v>
       </c>
-      <c r="T11" s="6">
-        <v>86969.93</v>
-      </c>
-      <c r="U11" s="6">
+      <c r="U12" s="8">
+        <v>88172.390000000189</v>
+      </c>
+      <c r="V12" s="8">
         <v>77236.09</v>
       </c>
-      <c r="V11" s="6">
+      <c r="W12" s="8">
         <v>118153.38</v>
       </c>
-      <c r="W11" s="6">
+      <c r="X12" s="8">
         <v>119846.34</v>
       </c>
-      <c r="X11" s="6">
+      <c r="Y12" s="8">
         <v>118196.9</v>
       </c>
-      <c r="Y11" s="6">
+      <c r="Z12" s="8">
         <v>120648.88</v>
       </c>
-      <c r="Z11" s="6">
+      <c r="AA12" s="8">
         <v>104691.93</v>
       </c>
-      <c r="AA11" s="6">
+      <c r="AB12" s="8">
         <v>114331.55</v>
       </c>
-      <c r="AB11" s="6">
-        <v>35635.5</v>
-      </c>
-      <c r="AC11" s="6">
-        <v>21460.400000000001</v>
-      </c>
-      <c r="AD11" s="6">
-        <v>109398</v>
-      </c>
-      <c r="AE11" s="7">
+      <c r="AC12" s="8">
+        <v>63579.199999999997</v>
+      </c>
+      <c r="AD12" s="8">
+        <v>49795.3</v>
+      </c>
+      <c r="AE12" s="8">
+        <v>114486.6</v>
+      </c>
+      <c r="AF12" s="7">
         <v>0</v>
       </c>
-      <c r="AF11" s="6">
-        <v>963581.96</v>
+      <c r="AG12" s="8">
+        <v>1292242.3899999999</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="17">
-        <v>1064601.8299999998</v>
-      </c>
-      <c r="G12" s="9">
-        <v>934594.17</v>
-      </c>
-      <c r="H12" s="9">
-        <v>60153.18</v>
-      </c>
-      <c r="I12" s="16">
-        <v>59901.61</v>
-      </c>
-      <c r="J12" s="9">
-        <v>82288.56</v>
-      </c>
-      <c r="K12" s="9">
-        <v>82540.13</v>
-      </c>
-      <c r="L12" s="9">
-        <v>84265.15</v>
-      </c>
-      <c r="M12" s="9">
-        <v>80091.100000000006</v>
-      </c>
-      <c r="N12" s="9">
-        <v>70421.56</v>
-      </c>
-      <c r="O12" s="9">
-        <v>67932.679999999993</v>
-      </c>
-      <c r="P12" s="9">
-        <v>80498.539999999994</v>
-      </c>
-      <c r="Q12" s="9">
-        <v>78226.47</v>
-      </c>
-      <c r="R12" s="9">
-        <v>113929.2</v>
-      </c>
-      <c r="S12" s="9">
-        <v>112378.92</v>
-      </c>
-      <c r="T12" s="9">
-        <v>86969.93</v>
-      </c>
-      <c r="U12" s="9">
-        <v>77236.09</v>
-      </c>
-      <c r="V12" s="9">
-        <v>118153.38</v>
-      </c>
-      <c r="W12" s="9">
-        <v>119846.34</v>
-      </c>
-      <c r="X12" s="9">
-        <v>118196.9</v>
-      </c>
-      <c r="Y12" s="9">
-        <v>120648.88</v>
-      </c>
-      <c r="Z12" s="9">
-        <v>104691.93</v>
-      </c>
-      <c r="AA12" s="9">
-        <v>114331.55</v>
-      </c>
-      <c r="AB12" s="9">
-        <v>35635.5</v>
-      </c>
-      <c r="AC12" s="9">
-        <v>21460.400000000001</v>
-      </c>
-      <c r="AD12" s="9">
-        <v>109398</v>
-      </c>
-      <c r="AE12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="9">
-        <v>963581.96</v>
-      </c>
+    <row r="15" spans="1:33" ht="11.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X15" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="A9:C10"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
+  <mergeCells count="17">
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="A9:E10"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
   <headerFooter>
-    <oddHeader>&amp;R&amp;"Arial,normal"&amp;8Реестр контрактов:  1 января 2022 г. - 31 декабря 2022 г. страница &amp;P из &amp;N</oddHeader>
-    <oddFooter>&amp;R&amp;"Arial,normal"&amp;8Отчет сформирован 11.11.2022 16:51:56 Пользователь: Авдеев Валентин Васильевич</oddFooter>
+    <oddHeader>&amp;R&amp;"Arial,normal"&amp;8Реестр контрактов:  1 января 2022 г. - 31 декабря 2023 г. страница &amp;P из &amp;N</oddHeader>
+    <oddFooter>&amp;R&amp;"Arial,normal"&amp;8Отчет сформирован 18.11.2022 19:01:24 Пользователь: Авдеев Валентин Васильевич</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/storage/app/contractAndFact/17/2022/Контрактация и факт.xlsx
+++ b/storage/app/contractAndFact/17/2022/Контрактация и факт.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/contractAndFact/17/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776FFFAF-43C1-4848-A6CE-EFD8BE0527DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3971771-BF6E-E84F-94EE-05EEE736B1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6280" yWindow="-28020" windowWidth="31340" windowHeight="14700" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20580" windowHeight="12180" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
   <si>
     <t>Реестр контрактов</t>
   </si>
@@ -28,13 +28,13 @@
     <t>Параметры:</t>
   </si>
   <si>
-    <t>Период отчета: 01.01.2022 - 31.12.2023</t>
-  </si>
-  <si>
-    <t>Граница для факта: 21.11.2022</t>
-  </si>
-  <si>
-    <t>Текущая дата: 18.11.2022</t>
+    <t>Период отчета: 01.01.2022 - 31.12.2022</t>
+  </si>
+  <si>
+    <t>Граница для факта: 29.11.2022</t>
+  </si>
+  <si>
+    <t>Текущая дата: 26.11.2022</t>
   </si>
   <si>
     <t>Отбор:</t>
@@ -44,6 +44,12 @@
 Этап.Статус В списке "Действует; Закрыт"</t>
   </si>
   <si>
+    <t>ТемодержательПредставление</t>
+  </si>
+  <si>
+    <t>Сумма договора</t>
+  </si>
+  <si>
     <t>Январь</t>
   </si>
   <si>
@@ -98,13 +104,10 @@
     <t>Итого</t>
   </si>
   <si>
-    <t>Код</t>
+    <t>Код подразделения</t>
   </si>
   <si>
     <t>00-000000</t>
-  </si>
-  <si>
-    <t>Темодержатель</t>
   </si>
 </sst>
 </file>
@@ -121,14 +124,12 @@
       <sz val="18"/>
       <color rgb="FF003F2F"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF003F2F"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -145,7 +146,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -229,6 +230,56 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFA0A0A0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA0A0A0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFA0A0A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA0A0A0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFA0A0A0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA0A0A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFA0A0A0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA0A0A0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA0A0A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFA0A0A0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA0A0A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFACC8BD"/>
       </left>
       <right/>
@@ -253,92 +304,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFA0A0A0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFA0A0A0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFA0A0A0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFA0A0A0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFA0A0A0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFA0A0A0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFA0A0A0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFA0A0A0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFA0A0A0"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFA0A0A0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFA0A0A0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFA0A0A0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFA0A0A0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFA0A0A0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFA0A0A0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFA0A0A0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -352,81 +322,66 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -435,6 +390,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -778,26 +739,24 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AG15"/>
+  <dimension ref="A1:AG18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="A11" sqref="A11:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="11.5" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="6" width="17" style="1" customWidth="1"/>
-    <col min="7" max="8" width="24" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.25" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.25" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.75" style="1" customWidth="1"/>
+    <col min="3" max="4" width="24" style="1" customWidth="1"/>
+    <col min="5" max="5" width="2.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7" style="1" customWidth="1"/>
+    <col min="11" max="18" width="12.25" style="1" customWidth="1"/>
     <col min="19" max="20" width="13.25" style="1" customWidth="1"/>
     <col min="21" max="22" width="12.25" style="1" customWidth="1"/>
     <col min="23" max="25" width="13.25" style="1" customWidth="1"/>
@@ -818,9 +777,6 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:33" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:33" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -828,406 +784,426 @@
         <v>1</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:33" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="G5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:33" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="G6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:33" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="20" t="s">
+      <c r="C7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="20"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="8" spans="1:33" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:33" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="18"/>
+      <c r="E9" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
       <c r="H9" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21" t="s">
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21" t="s">
+      <c r="L9" s="22"/>
+      <c r="M9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21" t="s">
+      <c r="N9" s="22"/>
+      <c r="O9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21" t="s">
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21" t="s">
+      <c r="R9" s="22"/>
+      <c r="S9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21" t="s">
+      <c r="T9" s="22"/>
+      <c r="U9" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="21" t="s">
+      <c r="V9" s="22"/>
+      <c r="W9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21" t="s">
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="AD9" s="21"/>
-      <c r="AE9" s="21" t="s">
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="AF9" s="21"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD9" s="22"/>
+      <c r="AE9" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF9" s="22"/>
       <c r="AG9" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:33" ht="101" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>21</v>
-      </c>
+      <c r="A10" s="25"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="22"/>
       <c r="K10" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Z10" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC10" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AD10" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE10" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AF10" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG10" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:33" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="5">
+      <c r="A11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="15">
+        <v>1146549.2</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="6">
+        <v>987760.87</v>
+      </c>
+      <c r="H11" s="6">
         <v>60153.18</v>
       </c>
-      <c r="J11" s="13">
+      <c r="I11" s="15">
         <v>59901.61</v>
       </c>
-      <c r="K11" s="5">
+      <c r="J11" s="16"/>
+      <c r="K11" s="6">
         <v>82288.56</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="6">
         <v>82540.13</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="6">
         <v>84265.15</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="6">
         <v>80091.100000000006</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="6">
         <v>70421.56</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P11" s="6">
         <v>67932.679999999993</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="Q11" s="6">
         <v>80498.539999999994</v>
       </c>
-      <c r="R11" s="5">
+      <c r="R11" s="6">
         <v>78226.47</v>
       </c>
-      <c r="S11" s="5">
+      <c r="S11" s="6">
         <v>112726.91</v>
       </c>
-      <c r="T11" s="5">
+      <c r="T11" s="6">
         <v>112378.92</v>
       </c>
-      <c r="U11" s="5">
-        <v>88172.390000000189</v>
-      </c>
-      <c r="V11" s="5">
+      <c r="U11" s="6">
+        <v>86969.93</v>
+      </c>
+      <c r="V11" s="6">
         <v>77236.09</v>
       </c>
-      <c r="W11" s="5">
+      <c r="W11" s="6">
         <v>118153.38</v>
       </c>
-      <c r="X11" s="5">
+      <c r="X11" s="6">
         <v>119846.34</v>
       </c>
-      <c r="Y11" s="5">
-        <v>118196.9</v>
-      </c>
-      <c r="Z11" s="5">
+      <c r="Y11" s="6">
+        <v>119399.36000000019</v>
+      </c>
+      <c r="Z11" s="6">
         <v>120648.88</v>
       </c>
-      <c r="AA11" s="5">
+      <c r="AA11" s="6">
         <v>104691.93</v>
       </c>
-      <c r="AB11" s="5">
+      <c r="AB11" s="6">
         <v>114331.55</v>
       </c>
-      <c r="AC11" s="5">
-        <v>63579.199999999997</v>
-      </c>
-      <c r="AD11" s="5">
-        <v>49795.3</v>
-      </c>
-      <c r="AE11" s="5">
-        <v>114486.6</v>
-      </c>
-      <c r="AF11" s="6">
+      <c r="AC11" s="6">
+        <v>98202.2</v>
+      </c>
+      <c r="AD11" s="6">
+        <v>74627.100000000006</v>
+      </c>
+      <c r="AE11" s="6">
+        <v>128778.5</v>
+      </c>
+      <c r="AF11" s="7">
         <v>0</v>
       </c>
-      <c r="AG11" s="5">
-        <v>1292242.3899999999</v>
+      <c r="AG11" s="6">
+        <v>977932.6</v>
       </c>
     </row>
     <row r="12" spans="1:33" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="8">
+      <c r="A12" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="20">
+        <v>1146549.2</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="9">
+        <v>987760.87</v>
+      </c>
+      <c r="H12" s="9">
         <v>60153.18</v>
       </c>
-      <c r="J12" s="12">
+      <c r="I12" s="20">
         <v>59901.61</v>
       </c>
-      <c r="K12" s="8">
+      <c r="J12" s="21"/>
+      <c r="K12" s="9">
         <v>82288.56</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="9">
         <v>82540.13</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="9">
         <v>84265.15</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="9">
         <v>80091.100000000006</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="9">
         <v>70421.56</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="9">
         <v>67932.679999999993</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="9">
         <v>80498.539999999994</v>
       </c>
-      <c r="R12" s="8">
+      <c r="R12" s="9">
         <v>78226.47</v>
       </c>
-      <c r="S12" s="8">
+      <c r="S12" s="9">
         <v>112726.91</v>
       </c>
-      <c r="T12" s="8">
+      <c r="T12" s="9">
         <v>112378.92</v>
       </c>
-      <c r="U12" s="8">
-        <v>88172.390000000189</v>
-      </c>
-      <c r="V12" s="8">
+      <c r="U12" s="9">
+        <v>86969.93</v>
+      </c>
+      <c r="V12" s="9">
         <v>77236.09</v>
       </c>
-      <c r="W12" s="8">
+      <c r="W12" s="9">
         <v>118153.38</v>
       </c>
-      <c r="X12" s="8">
+      <c r="X12" s="9">
         <v>119846.34</v>
       </c>
-      <c r="Y12" s="8">
-        <v>118196.9</v>
-      </c>
-      <c r="Z12" s="8">
+      <c r="Y12" s="9">
+        <v>119399.36000000019</v>
+      </c>
+      <c r="Z12" s="9">
         <v>120648.88</v>
       </c>
-      <c r="AA12" s="8">
+      <c r="AA12" s="9">
         <v>104691.93</v>
       </c>
-      <c r="AB12" s="8">
+      <c r="AB12" s="9">
         <v>114331.55</v>
       </c>
-      <c r="AC12" s="8">
-        <v>63579.199999999997</v>
-      </c>
-      <c r="AD12" s="8">
-        <v>49795.3</v>
-      </c>
-      <c r="AE12" s="8">
-        <v>114486.6</v>
-      </c>
-      <c r="AF12" s="7">
+      <c r="AC12" s="9">
+        <v>98202.2</v>
+      </c>
+      <c r="AD12" s="9">
+        <v>74627.100000000006</v>
+      </c>
+      <c r="AE12" s="9">
+        <v>128778.5</v>
+      </c>
+      <c r="AF12" s="10">
         <v>0</v>
       </c>
-      <c r="AG12" s="8">
-        <v>1292242.3899999999</v>
+      <c r="AG12" s="9">
+        <v>977932.6</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="11.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="X15" s="9"/>
+    <row r="18" spans="7:7" ht="11.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G18" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="A9:E10"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
+  <mergeCells count="24">
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="D9:D10"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="S9:T9"/>
     <mergeCell ref="U9:V9"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="I12:J12"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
   <headerFooter>
-    <oddHeader>&amp;R&amp;"Arial,normal"&amp;8Реестр контрактов:  1 января 2022 г. - 31 декабря 2023 г. страница &amp;P из &amp;N</oddHeader>
-    <oddFooter>&amp;R&amp;"Arial,normal"&amp;8Отчет сформирован 18.11.2022 19:01:24 Пользователь: Авдеев Валентин Васильевич</oddFooter>
+    <oddHeader>&amp;R&amp;"Arial,normal"&amp;8Реестр контрактов:  1 января 2022 г. - 31 декабря 2022 г. страница &amp;P из &amp;N</oddHeader>
+    <oddFooter>&amp;R&amp;"Arial,normal"&amp;8Отчет сформирован 26.11.2022 14:12:00 Пользователь: Авдеев Валентин Васильевич</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/storage/app/contractAndFact/17/2022/Контрактация и факт.xlsx
+++ b/storage/app/contractAndFact/17/2022/Контрактация и факт.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/contractAndFact/17/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3971771-BF6E-E84F-94EE-05EEE736B1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73CE1FB-BF3F-4F48-AEC7-757EF966E9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20580" windowHeight="12180" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2520" yWindow="4920" windowWidth="25060" windowHeight="12180" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t>Реестр контрактов</t>
   </si>
@@ -124,12 +124,14 @@
       <sz val="18"/>
       <color rgb="FF003F2F"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF003F2F"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -146,7 +148,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -304,11 +306,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFACC8BD"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -343,6 +354,42 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -352,12 +399,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -368,34 +409,19 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -741,21 +767,20 @@
   </sheetPr>
   <dimension ref="A1:AG18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="11.5" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="2.75" style="1" customWidth="1"/>
-    <col min="3" max="4" width="24" style="1" customWidth="1"/>
-    <col min="5" max="5" width="2.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7" style="1" customWidth="1"/>
+    <col min="3" max="5" width="24" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="1" customWidth="1"/>
     <col min="11" max="18" width="12.25" style="1" customWidth="1"/>
     <col min="19" max="20" width="13.25" style="1" customWidth="1"/>
     <col min="21" max="22" width="12.25" style="1" customWidth="1"/>
@@ -777,6 +802,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:33" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:33" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -793,6 +819,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:33" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C5" s="3" t="s">
@@ -804,6 +831,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:33" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C6" s="3" t="s">
@@ -815,106 +843,108 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:33" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:33" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:33" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="28" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="14"/>
+      <c r="F9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22" t="s">
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22" t="s">
+      <c r="J9" s="21"/>
+      <c r="K9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22" t="s">
+      <c r="L9" s="21"/>
+      <c r="M9" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22" t="s">
+      <c r="N9" s="21"/>
+      <c r="O9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22" t="s">
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22" t="s">
+      <c r="R9" s="21"/>
+      <c r="S9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22" t="s">
+      <c r="T9" s="21"/>
+      <c r="U9" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22" t="s">
+      <c r="V9" s="21"/>
+      <c r="W9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22" t="s">
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="22" t="s">
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22" t="s">
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AD9" s="22"/>
-      <c r="AE9" s="22" t="s">
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AF9" s="22"/>
+      <c r="AF9" s="21"/>
       <c r="AG9" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:33" ht="101" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="22" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="21"/>
+      <c r="H10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="J10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="22"/>
       <c r="K10" s="4" t="s">
         <v>22</v>
       </c>
@@ -986,28 +1016,28 @@
       </c>
     </row>
     <row r="11" spans="1:33" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="15">
-        <v>1146549.2</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="6">
+      <c r="E11" s="32"/>
+      <c r="F11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="34"/>
+      <c r="H11" s="6">
         <v>987760.87</v>
       </c>
-      <c r="H11" s="6">
+      <c r="I11" s="6">
         <v>60153.18</v>
       </c>
-      <c r="I11" s="15">
+      <c r="J11" s="33">
         <v>59901.61</v>
       </c>
-      <c r="J11" s="16"/>
       <c r="K11" s="6">
         <v>82288.56</v>
       </c>
@@ -1079,26 +1109,26 @@
       </c>
     </row>
     <row r="12" spans="1:33" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="20">
+      <c r="E12" s="12"/>
+      <c r="F12" s="30">
         <v>1146549.2</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="9">
+      <c r="G12" s="31"/>
+      <c r="H12" s="9">
         <v>987760.87</v>
       </c>
-      <c r="H12" s="9">
+      <c r="I12" s="9">
         <v>60153.18</v>
       </c>
-      <c r="I12" s="20">
+      <c r="J12" s="30">
         <v>59901.61</v>
       </c>
-      <c r="J12" s="21"/>
       <c r="K12" s="9">
         <v>82288.56</v>
       </c>
@@ -1169,35 +1199,30 @@
         <v>977932.6</v>
       </c>
     </row>
-    <row r="18" spans="7:7" ht="11.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G18" s="11"/>
+    <row r="18" spans="8:8" ht="11.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H18" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="A9:C10"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="D9:D10"/>
+  <mergeCells count="19">
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="S9:T9"/>
     <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D9:D10"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>

--- a/storage/app/contractAndFact/17/2022/Контрактация и факт.xlsx
+++ b/storage/app/contractAndFact/17/2022/Контрактация и факт.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/contractAndFact/17/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73CE1FB-BF3F-4F48-AEC7-757EF966E9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D47EA6-B90C-0F45-903D-90470B1867E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="4920" windowWidth="25060" windowHeight="12180" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24240" windowHeight="11420" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
   <si>
     <t>Реестр контрактов</t>
   </si>
@@ -31,10 +31,10 @@
     <t>Период отчета: 01.01.2022 - 31.12.2022</t>
   </si>
   <si>
-    <t>Граница для факта: 29.11.2022</t>
-  </si>
-  <si>
-    <t>Текущая дата: 26.11.2022</t>
+    <t>Граница для факта: 03.12.2022</t>
+  </si>
+  <si>
+    <t>Текущая дата: 02.12.2022</t>
   </si>
   <si>
     <t>Отбор:</t>
@@ -124,14 +124,12 @@
       <sz val="18"/>
       <color rgb="FF003F2F"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF003F2F"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -245,43 +243,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFA0A0A0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFA0A0A0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFA0A0A0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFA0A0A0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFA0A0A0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFA0A0A0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFA0A0A0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFA0A0A0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFACC8BD"/>
       </left>
       <right/>
@@ -298,6 +259,43 @@
       <right style="thin">
         <color rgb="FFACC8BD"/>
       </right>
+      <top style="thin">
+        <color rgb="FFA0A0A0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA0A0A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA0A0A0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFA0A0A0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA0A0A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFA0A0A0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA0A0A0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA0A0A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FFA0A0A0"/>
       </top>
@@ -319,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -351,12 +349,6 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -366,6 +358,42 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -381,47 +409,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -765,10 +766,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AG18"/>
+  <dimension ref="A1:AG12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="11.5" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -776,19 +777,19 @@
     <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="2.75" style="1" customWidth="1"/>
     <col min="3" max="5" width="24" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.25" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" style="1" customWidth="1"/>
     <col min="11" max="18" width="12.25" style="1" customWidth="1"/>
     <col min="19" max="20" width="13.25" style="1" customWidth="1"/>
     <col min="21" max="22" width="12.25" style="1" customWidth="1"/>
     <col min="23" max="25" width="13.25" style="1" customWidth="1"/>
     <col min="26" max="27" width="13.5" style="1" customWidth="1"/>
     <col min="28" max="28" width="13.25" style="1" customWidth="1"/>
-    <col min="29" max="30" width="12.25" style="1" customWidth="1"/>
-    <col min="31" max="31" width="13.5" style="1" customWidth="1"/>
+    <col min="29" max="29" width="13.5" style="1" customWidth="1"/>
+    <col min="30" max="31" width="13.25" style="1" customWidth="1"/>
     <col min="32" max="32" width="8.25" style="1" customWidth="1"/>
     <col min="33" max="33" width="21" style="1" customWidth="1"/>
   </cols>
@@ -850,99 +851,99 @@
         <v>5</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:33" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:33" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="22" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="21" t="s">
+      <c r="E9" s="12"/>
+      <c r="F9" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21" t="s">
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21" t="s">
+      <c r="J9" s="25"/>
+      <c r="K9" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21" t="s">
+      <c r="L9" s="25"/>
+      <c r="M9" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21" t="s">
+      <c r="N9" s="25"/>
+      <c r="O9" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21" t="s">
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21" t="s">
+      <c r="R9" s="25"/>
+      <c r="S9" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21" t="s">
+      <c r="T9" s="25"/>
+      <c r="U9" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21" t="s">
+      <c r="V9" s="25"/>
+      <c r="W9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21" t="s">
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="21" t="s">
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21" t="s">
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="AD9" s="21"/>
-      <c r="AE9" s="21" t="s">
+      <c r="AD9" s="25"/>
+      <c r="AE9" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="AF9" s="21"/>
+      <c r="AF9" s="25"/>
       <c r="AG9" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:33" ht="101" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="21" t="s">
+      <c r="A10" s="28"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="21"/>
+      <c r="G10" s="25"/>
       <c r="H10" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="11" t="s">
         <v>23</v>
       </c>
       <c r="K10" s="4" t="s">
@@ -1016,21 +1017,21 @@
       </c>
     </row>
     <row r="11" spans="1:33" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="34"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="18">
+        <v>1158930.0900000001</v>
+      </c>
+      <c r="G11" s="19"/>
       <c r="H11" s="6">
-        <v>987760.87</v>
+        <v>1030531.67</v>
       </c>
       <c r="I11" s="6">
         <v>60153.18</v>
@@ -1093,40 +1094,40 @@
         <v>114331.55</v>
       </c>
       <c r="AC11" s="6">
-        <v>98202.2</v>
+        <v>124573.79</v>
       </c>
       <c r="AD11" s="6">
-        <v>74627.100000000006</v>
+        <v>117397.9</v>
       </c>
       <c r="AE11" s="6">
-        <v>128778.5</v>
+        <v>114787.8</v>
       </c>
       <c r="AF11" s="7">
         <v>0</v>
       </c>
       <c r="AG11" s="6">
-        <v>977932.6</v>
+        <v>1036066.11</v>
       </c>
     </row>
     <row r="12" spans="1:33" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="30">
-        <v>1146549.2</v>
-      </c>
-      <c r="G12" s="31"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="23">
+        <v>1158930.0900000001</v>
+      </c>
+      <c r="G12" s="24"/>
       <c r="H12" s="9">
-        <v>987760.87</v>
+        <v>1030531.67</v>
       </c>
       <c r="I12" s="9">
         <v>60153.18</v>
       </c>
-      <c r="J12" s="30">
+      <c r="J12" s="34">
         <v>59901.61</v>
       </c>
       <c r="K12" s="9">
@@ -1184,38 +1185,23 @@
         <v>114331.55</v>
       </c>
       <c r="AC12" s="9">
-        <v>98202.2</v>
+        <v>124573.79</v>
       </c>
       <c r="AD12" s="9">
-        <v>74627.100000000006</v>
+        <v>117397.9</v>
       </c>
       <c r="AE12" s="9">
-        <v>128778.5</v>
+        <v>114787.8</v>
       </c>
       <c r="AF12" s="10">
         <v>0</v>
       </c>
       <c r="AG12" s="9">
-        <v>977932.6</v>
-      </c>
-    </row>
-    <row r="18" spans="8:8" ht="11.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H18" s="11"/>
+        <v>1036066.11</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
+  <mergeCells count="21">
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="A9:C10"/>
     <mergeCell ref="F9:H9"/>
@@ -1223,12 +1209,26 @@
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="D9:D10"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="F12:G12"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;"Arial,normal"&amp;8Реестр контрактов:  1 января 2022 г. - 31 декабря 2022 г. страница &amp;P из &amp;N</oddHeader>
-    <oddFooter>&amp;R&amp;"Arial,normal"&amp;8Отчет сформирован 26.11.2022 14:12:00 Пользователь: Авдеев Валентин Васильевич</oddFooter>
+    <oddFooter>&amp;R&amp;"Arial,normal"&amp;8Отчет сформирован 02.12.2022 16:17:25 Пользователь: Авдеев Валентин Васильевич</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/storage/app/contractAndFact/17/2022/Контрактация и факт.xlsx
+++ b/storage/app/contractAndFact/17/2022/Контрактация и факт.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/contractAndFact/17/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D47EA6-B90C-0F45-903D-90470B1867E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7301A69F-AA54-1A47-AD11-8FE2C0E6255A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24240" windowHeight="11420" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27900" windowHeight="13300" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -31,12 +31,6 @@
     <t>Период отчета: 01.01.2022 - 31.12.2022</t>
   </si>
   <si>
-    <t>Граница для факта: 03.12.2022</t>
-  </si>
-  <si>
-    <t>Текущая дата: 02.12.2022</t>
-  </si>
-  <si>
     <t>Отбор:</t>
   </si>
   <si>
@@ -108,13 +102,19 @@
   </si>
   <si>
     <t>00-000000</t>
+  </si>
+  <si>
+    <t>Граница для факта: 13.12.2022</t>
+  </si>
+  <si>
+    <t>Текущая дата: 09.12.2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -124,12 +124,22 @@
       <sz val="18"/>
       <color rgb="FF003F2F"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF003F2F"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -317,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -337,17 +347,14 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -358,27 +365,51 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -390,30 +421,6 @@
     </xf>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -768,8 +775,8 @@
   </sheetPr>
   <dimension ref="A1:AG12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="11.5" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -777,11 +784,11 @@
     <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="2.75" style="1" customWidth="1"/>
     <col min="3" max="5" width="24" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.25" style="1" customWidth="1"/>
     <col min="11" max="18" width="12.25" style="1" customWidth="1"/>
     <col min="19" max="20" width="13.25" style="1" customWidth="1"/>
     <col min="21" max="22" width="12.25" style="1" customWidth="1"/>
@@ -790,7 +797,7 @@
     <col min="28" max="28" width="13.25" style="1" customWidth="1"/>
     <col min="29" max="29" width="13.5" style="1" customWidth="1"/>
     <col min="30" max="31" width="13.25" style="1" customWidth="1"/>
-    <col min="32" max="32" width="8.25" style="1" customWidth="1"/>
+    <col min="32" max="32" width="10.75" style="1" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="21" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -823,8 +830,8 @@
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:33" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C5" s="3" t="s">
-        <v>3</v>
+      <c r="C5" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -835,8 +842,8 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:33" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="3" t="s">
-        <v>4</v>
+      <c r="C6" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -848,195 +855,195 @@
     </row>
     <row r="7" spans="1:33" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
+      <c r="C7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:33" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:33" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="25" t="s">
+      <c r="J9" s="19"/>
+      <c r="K9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25" t="s">
+      <c r="L9" s="19"/>
+      <c r="M9" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25" t="s">
+      <c r="N9" s="19"/>
+      <c r="O9" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25" t="s">
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25" t="s">
+      <c r="R9" s="19"/>
+      <c r="S9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25" t="s">
+      <c r="T9" s="19"/>
+      <c r="U9" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25" t="s">
+      <c r="V9" s="19"/>
+      <c r="W9" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25" t="s">
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25" t="s">
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25" t="s">
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="25" t="s">
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="25" t="s">
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="AD9" s="25"/>
-      <c r="AE9" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF9" s="25"/>
-      <c r="AG9" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:33" ht="101" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="28"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="25" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG10" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG10" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:33" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
+      <c r="A11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="18">
-        <v>1158930.0900000001</v>
-      </c>
-      <c r="G11" s="19"/>
+        <v>26</v>
+      </c>
+      <c r="E11" s="34"/>
+      <c r="F11" s="25">
+        <v>1161634.7</v>
+      </c>
+      <c r="G11" s="26"/>
       <c r="H11" s="6">
-        <v>1030531.67</v>
+        <v>1059805.95</v>
       </c>
       <c r="I11" s="6">
         <v>60153.18</v>
       </c>
-      <c r="J11" s="33">
+      <c r="J11" s="32">
         <v>59901.61</v>
       </c>
       <c r="K11" s="6">
@@ -1049,7 +1056,7 @@
         <v>84265.15</v>
       </c>
       <c r="N11" s="6">
-        <v>80091.100000000006</v>
+        <v>80091.16</v>
       </c>
       <c r="O11" s="6">
         <v>70421.56</v>
@@ -1079,7 +1086,7 @@
         <v>118153.38</v>
       </c>
       <c r="X11" s="6">
-        <v>119846.34</v>
+        <v>119846.36</v>
       </c>
       <c r="Y11" s="6">
         <v>119399.36000000019</v>
@@ -1094,114 +1101,128 @@
         <v>114331.55</v>
       </c>
       <c r="AC11" s="6">
-        <v>124573.79</v>
+        <v>116226.5</v>
       </c>
       <c r="AD11" s="6">
         <v>117397.9</v>
       </c>
       <c r="AE11" s="6">
-        <v>114787.8</v>
-      </c>
-      <c r="AF11" s="7">
-        <v>0</v>
+        <v>125839.7</v>
+      </c>
+      <c r="AF11" s="6">
+        <v>29274.2</v>
       </c>
       <c r="AG11" s="6">
         <v>1036066.11</v>
       </c>
     </row>
     <row r="12" spans="1:33" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="23">
-        <v>1158930.0900000001</v>
-      </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="9">
-        <v>1030531.67</v>
-      </c>
-      <c r="I12" s="9">
+      <c r="A12" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="30">
+        <v>1161634.7</v>
+      </c>
+      <c r="G12" s="31"/>
+      <c r="H12" s="8">
+        <v>1059805.95</v>
+      </c>
+      <c r="I12" s="8">
         <v>60153.18</v>
       </c>
-      <c r="J12" s="34">
+      <c r="J12" s="33">
         <v>59901.61</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="8">
         <v>82288.56</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="8">
         <v>82540.13</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="8">
         <v>84265.15</v>
       </c>
-      <c r="N12" s="9">
-        <v>80091.100000000006</v>
-      </c>
-      <c r="O12" s="9">
+      <c r="N12" s="8">
+        <v>80091.16</v>
+      </c>
+      <c r="O12" s="8">
         <v>70421.56</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="8">
         <v>67932.679999999993</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="Q12" s="8">
         <v>80498.539999999994</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R12" s="8">
         <v>78226.47</v>
       </c>
-      <c r="S12" s="9">
+      <c r="S12" s="8">
         <v>112726.91</v>
       </c>
-      <c r="T12" s="9">
+      <c r="T12" s="8">
         <v>112378.92</v>
       </c>
-      <c r="U12" s="9">
+      <c r="U12" s="8">
         <v>86969.93</v>
       </c>
-      <c r="V12" s="9">
+      <c r="V12" s="8">
         <v>77236.09</v>
       </c>
-      <c r="W12" s="9">
+      <c r="W12" s="8">
         <v>118153.38</v>
       </c>
-      <c r="X12" s="9">
-        <v>119846.34</v>
-      </c>
-      <c r="Y12" s="9">
+      <c r="X12" s="8">
+        <v>119846.36</v>
+      </c>
+      <c r="Y12" s="8">
         <v>119399.36000000019</v>
       </c>
-      <c r="Z12" s="9">
+      <c r="Z12" s="8">
         <v>120648.88</v>
       </c>
-      <c r="AA12" s="9">
+      <c r="AA12" s="8">
         <v>104691.93</v>
       </c>
-      <c r="AB12" s="9">
+      <c r="AB12" s="8">
         <v>114331.55</v>
       </c>
-      <c r="AC12" s="9">
-        <v>124573.79</v>
-      </c>
-      <c r="AD12" s="9">
+      <c r="AC12" s="8">
+        <v>116226.5</v>
+      </c>
+      <c r="AD12" s="8">
         <v>117397.9</v>
       </c>
-      <c r="AE12" s="9">
-        <v>114787.8</v>
-      </c>
-      <c r="AF12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="9">
+      <c r="AE12" s="8">
+        <v>125839.7</v>
+      </c>
+      <c r="AF12" s="8">
+        <v>29274.2</v>
+      </c>
+      <c r="AG12" s="8">
         <v>1036066.11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="A9:C10"/>
     <mergeCell ref="F9:H9"/>
@@ -1209,20 +1230,6 @@
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="F12:G12"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>

--- a/storage/app/contractAndFact/17/2022/Контрактация и факт.xlsx
+++ b/storage/app/contractAndFact/17/2022/Контрактация и факт.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/contractAndFact/17/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7301A69F-AA54-1A47-AD11-8FE2C0E6255A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E90324B-108A-E84E-A0D2-F4ACA8D91F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27900" windowHeight="13300" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="920" yWindow="720" windowWidth="29800" windowHeight="12360" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -107,14 +107,17 @@
     <t>Граница для факта: 13.12.2022</t>
   </si>
   <si>
-    <t>Текущая дата: 09.12.2022</t>
+    <t>Текущая дата: 16.12.2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -141,6 +144,17 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -316,18 +330,26 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFACC8BD"/>
+        <color indexed="22"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -353,87 +375,83 @@
     <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный_TDSheet" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -773,25 +791,27 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AG12"/>
+  <dimension ref="A1:AG28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="11.5" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="2.75" style="1" customWidth="1"/>
-    <col min="3" max="5" width="24" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
+    <col min="4" max="5" width="24" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.25" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.75" style="1" customWidth="1"/>
     <col min="11" max="18" width="12.25" style="1" customWidth="1"/>
     <col min="19" max="20" width="13.25" style="1" customWidth="1"/>
-    <col min="21" max="22" width="12.25" style="1" customWidth="1"/>
+    <col min="21" max="21" width="16.75" style="1" customWidth="1"/>
+    <col min="22" max="22" width="12.25" style="1" customWidth="1"/>
     <col min="23" max="25" width="13.25" style="1" customWidth="1"/>
     <col min="26" max="27" width="13.5" style="1" customWidth="1"/>
     <col min="28" max="28" width="13.25" style="1" customWidth="1"/>
@@ -818,10 +838,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -830,10 +850,9 @@
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:33" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C5" s="13" t="s">
+      <c r="D5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -842,10 +861,9 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:33" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -858,92 +876,92 @@
         <v>3</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
     </row>
     <row r="8" spans="1:33" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:33" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="20" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19" t="s">
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19" t="s">
+      <c r="J9" s="20"/>
+      <c r="K9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19" t="s">
+      <c r="L9" s="20"/>
+      <c r="M9" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19" t="s">
+      <c r="N9" s="20"/>
+      <c r="O9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19" t="s">
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19" t="s">
+      <c r="R9" s="20"/>
+      <c r="S9" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19" t="s">
+      <c r="T9" s="20"/>
+      <c r="U9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19" t="s">
+      <c r="V9" s="20"/>
+      <c r="W9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19" t="s">
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="19" t="s">
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19" t="s">
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="19" t="s">
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="AF9" s="19"/>
+      <c r="AF9" s="20"/>
       <c r="AG9" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:33" ht="101" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="19" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="19"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="4" t="s">
         <v>21</v>
       </c>
@@ -1024,26 +1042,26 @@
       </c>
     </row>
     <row r="11" spans="1:33" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="5" t="s">
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="25">
-        <v>1161634.7</v>
-      </c>
-      <c r="G11" s="26"/>
+      <c r="F11" s="13">
+        <v>1171368.2000000002</v>
+      </c>
+      <c r="G11" s="14"/>
       <c r="H11" s="6">
-        <v>1059805.95</v>
+        <v>1084857.3500000001</v>
       </c>
       <c r="I11" s="6">
         <v>60153.18</v>
       </c>
-      <c r="J11" s="32">
+      <c r="J11" s="28">
         <v>59901.61</v>
       </c>
       <c r="K11" s="6">
@@ -1077,7 +1095,7 @@
         <v>112378.92</v>
       </c>
       <c r="U11" s="6">
-        <v>86969.93</v>
+        <v>82602.260000000068</v>
       </c>
       <c r="V11" s="6">
         <v>77236.09</v>
@@ -1095,46 +1113,46 @@
         <v>120648.88</v>
       </c>
       <c r="AA11" s="6">
-        <v>104691.93</v>
+        <v>105460.1</v>
       </c>
       <c r="AB11" s="6">
         <v>114331.55</v>
       </c>
       <c r="AC11" s="6">
-        <v>116226.5</v>
+        <v>116317.6</v>
       </c>
       <c r="AD11" s="6">
         <v>117397.9</v>
       </c>
       <c r="AE11" s="6">
-        <v>125839.7</v>
+        <v>139081.60000000001</v>
       </c>
       <c r="AF11" s="6">
-        <v>29274.2</v>
-      </c>
-      <c r="AG11" s="6">
-        <v>1036066.11</v>
+        <v>54325.599999999999</v>
+      </c>
+      <c r="AG11" s="12">
+        <v>1038288.91</v>
       </c>
     </row>
     <row r="12" spans="1:33" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="30">
-        <v>1161634.7</v>
-      </c>
-      <c r="G12" s="31"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="18">
+        <v>1171368.2000000002</v>
+      </c>
+      <c r="G12" s="19"/>
       <c r="H12" s="8">
-        <v>1059805.95</v>
+        <v>1084857.3500000001</v>
       </c>
       <c r="I12" s="8">
         <v>60153.18</v>
       </c>
-      <c r="J12" s="33">
+      <c r="J12" s="29">
         <v>59901.61</v>
       </c>
       <c r="K12" s="8">
@@ -1168,7 +1186,7 @@
         <v>112378.92</v>
       </c>
       <c r="U12" s="8">
-        <v>86969.93</v>
+        <v>82602.260000000068</v>
       </c>
       <c r="V12" s="8">
         <v>77236.09</v>
@@ -1186,50 +1204,52 @@
         <v>120648.88</v>
       </c>
       <c r="AA12" s="8">
-        <v>104691.93</v>
+        <v>105460.1</v>
       </c>
       <c r="AB12" s="8">
         <v>114331.55</v>
       </c>
       <c r="AC12" s="8">
-        <v>116226.5</v>
+        <v>116317.6</v>
       </c>
       <c r="AD12" s="8">
         <v>117397.9</v>
       </c>
       <c r="AE12" s="8">
-        <v>125839.7</v>
+        <v>139081.60000000001</v>
       </c>
       <c r="AF12" s="8">
-        <v>29274.2</v>
+        <v>54325.599999999999</v>
       </c>
       <c r="AG12" s="8">
-        <v>1036066.11</v>
-      </c>
+        <v>1038288.91</v>
+      </c>
+    </row>
+    <row r="28" spans="13:13" ht="11.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M28" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="F12:G12"/>
+  <mergeCells count="20">
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="A9:D10"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
     <mergeCell ref="W9:X9"/>
     <mergeCell ref="Y9:Z9"/>
     <mergeCell ref="AA9:AB9"/>
     <mergeCell ref="AC9:AD9"/>
     <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A9:C10"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="F12:G12"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>

--- a/storage/app/contractAndFact/17/2022/Контрактация и факт.xlsx
+++ b/storage/app/contractAndFact/17/2022/Контрактация и факт.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/contractAndFact/17/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E90324B-108A-E84E-A0D2-F4ACA8D91F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7D2A58-E286-F343-B5EF-F713FD7EFDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="720" windowWidth="29800" windowHeight="12360" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12400" yWindow="940" windowWidth="29860" windowHeight="16200" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -170,7 +170,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -343,13 +343,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFACC8BD"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -378,15 +387,54 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -408,44 +456,17 @@
     <xf numFmtId="4" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -793,21 +814,20 @@
   </sheetPr>
   <dimension ref="A1:AG28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="11.5" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="2.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
-    <col min="4" max="5" width="24" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="1" customWidth="1"/>
+    <col min="3" max="5" width="24" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.25" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="1" customWidth="1"/>
     <col min="11" max="18" width="12.25" style="1" customWidth="1"/>
     <col min="19" max="20" width="13.25" style="1" customWidth="1"/>
     <col min="21" max="21" width="16.75" style="1" customWidth="1"/>
@@ -838,10 +858,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -850,9 +870,10 @@
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:33" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="D5" s="9"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -861,9 +882,10 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:33" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="9" t="s">
         <v>28</v>
       </c>
+      <c r="D6" s="9"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -876,23 +898,23 @@
         <v>3</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="21" t="s">
+      <c r="C7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:33" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:33" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="26" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="21" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="20" t="s">
@@ -953,11 +975,11 @@
       </c>
     </row>
     <row r="10" spans="1:33" ht="101" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="27"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="20" t="s">
         <v>20</v>
       </c>
@@ -968,7 +990,7 @@
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="35" t="s">
         <v>21</v>
       </c>
       <c r="K10" s="4" t="s">
@@ -1042,26 +1064,26 @@
       </c>
     </row>
     <row r="11" spans="1:33" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="26">
         <v>1171368.2000000002</v>
       </c>
-      <c r="G11" s="14"/>
+      <c r="G11" s="27"/>
       <c r="H11" s="6">
-        <v>1084857.3500000001</v>
+        <v>1097787.75</v>
       </c>
       <c r="I11" s="6">
         <v>60153.18</v>
       </c>
-      <c r="J11" s="28">
+      <c r="J11" s="33">
         <v>59901.61</v>
       </c>
       <c r="K11" s="6">
@@ -1128,31 +1150,31 @@
         <v>139081.60000000001</v>
       </c>
       <c r="AF11" s="6">
-        <v>54325.599999999999</v>
-      </c>
-      <c r="AG11" s="12">
+        <v>67256</v>
+      </c>
+      <c r="AG11" s="11">
         <v>1038288.91</v>
       </c>
     </row>
     <row r="12" spans="1:33" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="18">
+      <c r="F12" s="31">
         <v>1171368.2000000002</v>
       </c>
-      <c r="G12" s="19"/>
+      <c r="G12" s="32"/>
       <c r="H12" s="8">
-        <v>1084857.3500000001</v>
+        <v>1097787.75</v>
       </c>
       <c r="I12" s="8">
         <v>60153.18</v>
       </c>
-      <c r="J12" s="29">
+      <c r="J12" s="34">
         <v>59901.61</v>
       </c>
       <c r="K12" s="8">
@@ -1219,37 +1241,38 @@
         <v>139081.60000000001</v>
       </c>
       <c r="AF12" s="8">
-        <v>54325.599999999999</v>
+        <v>67256</v>
       </c>
       <c r="AG12" s="8">
         <v>1038288.91</v>
       </c>
     </row>
     <row r="28" spans="13:13" ht="11.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="M28" s="11"/>
+      <c r="M28" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="A9:D10"/>
+  <mergeCells count="21">
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A9:C10"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="E9:E10"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="F12:G12"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>

--- a/storage/app/contractAndFact/17/2022/Контрактация и факт.xlsx
+++ b/storage/app/contractAndFact/17/2022/Контрактация и факт.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/contractAndFact/17/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7D2A58-E286-F343-B5EF-F713FD7EFDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DF0E39-2C44-2646-AE25-551D55015673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12400" yWindow="940" windowWidth="29860" windowHeight="16200" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9740" yWindow="8760" windowWidth="29860" windowHeight="16200" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
     <t>Реестр контрактов</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>ТемодержательПредставление</t>
-  </si>
-  <si>
-    <t>Сумма договора</t>
   </si>
   <si>
     <t>Январь</t>
@@ -358,7 +355,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -402,6 +399,54 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -415,9 +460,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -426,47 +468,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -815,15 +818,14 @@
   <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="11.5" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="2.75" style="1" customWidth="1"/>
-    <col min="3" max="5" width="24" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
+    <col min="3" max="6" width="24" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.25" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.25" style="1" customWidth="1"/>
@@ -871,10 +873,10 @@
     </row>
     <row r="5" spans="1:33" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C5" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="3"/>
+      <c r="E5" s="9"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -883,10 +885,10 @@
     </row>
     <row r="6" spans="1:33" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C6" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="3"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -898,192 +900,186 @@
         <v>3</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
     </row>
     <row r="8" spans="1:33" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:33" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="20" t="s">
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20" t="s">
+      <c r="J9" s="30"/>
+      <c r="K9" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20" t="s">
+      <c r="L9" s="30"/>
+      <c r="M9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20" t="s">
+      <c r="N9" s="30"/>
+      <c r="O9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20" t="s">
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20" t="s">
+      <c r="R9" s="30"/>
+      <c r="S9" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20" t="s">
+      <c r="T9" s="30"/>
+      <c r="U9" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20" t="s">
+      <c r="V9" s="30"/>
+      <c r="W9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20" t="s">
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20" t="s">
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="20" t="s">
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20" t="s">
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="AD9" s="20"/>
-      <c r="AE9" s="20" t="s">
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:33" ht="101" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="20" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG10" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG10" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:33" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="26">
-        <v>1171368.2000000002</v>
-      </c>
-      <c r="G11" s="27"/>
+      <c r="A11" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="38"/>
       <c r="H11" s="6">
         <v>1097787.75</v>
       </c>
       <c r="I11" s="6">
         <v>60153.18</v>
       </c>
-      <c r="J11" s="33">
+      <c r="J11" s="20">
         <v>59901.61</v>
       </c>
       <c r="K11" s="6">
@@ -1157,24 +1153,22 @@
       </c>
     </row>
     <row r="12" spans="1:33" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="31">
-        <v>1171368.2000000002</v>
-      </c>
-      <c r="G12" s="32"/>
+      <c r="A12" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="8">
         <v>1097787.75</v>
       </c>
       <c r="I12" s="8">
         <v>60153.18</v>
       </c>
-      <c r="J12" s="34">
+      <c r="J12" s="21">
         <v>59901.61</v>
       </c>
       <c r="K12" s="8">
@@ -1251,12 +1245,13 @@
       <c r="M28" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="W9:X9"/>
+  <mergeCells count="18">
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="Y9:Z9"/>
     <mergeCell ref="AA9:AB9"/>
     <mergeCell ref="AC9:AD9"/>
@@ -1266,13 +1261,9 @@
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="S9:T9"/>
     <mergeCell ref="U9:V9"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A9:C10"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="W9:X9"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>

--- a/storage/app/contractAndFact/17/2022/Контрактация и факт.xlsx
+++ b/storage/app/contractAndFact/17/2022/Контрактация и факт.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/contractAndFact/17/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DF0E39-2C44-2646-AE25-551D55015673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0994189B-7047-FA43-AB15-DD93A977E116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9740" yWindow="8760" windowWidth="29860" windowHeight="16200" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9740" yWindow="8280" windowWidth="29860" windowHeight="16200" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
   <si>
     <t>Реестр контрактов</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Текущая дата: 16.12.2022</t>
+  </si>
+  <si>
+    <t>фыв</t>
   </si>
 </sst>
 </file>
@@ -423,8 +426,35 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -443,33 +473,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -818,7 +821,7 @@
   <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="11.5" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -900,24 +903,24 @@
         <v>3</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:33" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:33" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="15"/>
       <c r="E9" s="13"/>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="31" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="30"/>
@@ -975,12 +978,12 @@
       </c>
     </row>
     <row r="10" spans="1:33" ht="101" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="33"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="16"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="37"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="17"/>
       <c r="H10" s="4" t="s">
         <v>20</v>
@@ -1062,17 +1065,21 @@
       </c>
     </row>
     <row r="11" spans="1:33" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>28</v>
+      </c>
       <c r="F11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="38"/>
+      <c r="G11" s="23"/>
       <c r="H11" s="6">
         <v>1097787.75</v>
       </c>
@@ -1153,11 +1160,11 @@
       </c>
     </row>
     <row r="12" spans="1:33" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="18"/>
       <c r="E12" s="12"/>
       <c r="F12" s="7"/>
@@ -1246,12 +1253,9 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A9:C10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="W9:X9"/>
     <mergeCell ref="Y9:Z9"/>
     <mergeCell ref="AA9:AB9"/>
     <mergeCell ref="AC9:AD9"/>
@@ -1261,9 +1265,12 @@
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="S9:T9"/>
     <mergeCell ref="U9:V9"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
